--- a/covid_cleaned_data.xlsx
+++ b/covid_cleaned_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="97">
   <si>
     <t>Cumulative</t>
   </si>
@@ -230,6 +230,54 @@
   </si>
   <si>
     <t>2020/05/11</t>
+  </si>
+  <si>
+    <t>2020/05/12</t>
+  </si>
+  <si>
+    <t>2020/05/13</t>
+  </si>
+  <si>
+    <t>2020/05/14</t>
+  </si>
+  <si>
+    <t>2020/05/15</t>
+  </si>
+  <si>
+    <t>2020/05/16</t>
+  </si>
+  <si>
+    <t>2020/05/17</t>
+  </si>
+  <si>
+    <t>2020/05/18</t>
+  </si>
+  <si>
+    <t>2020/05/19</t>
+  </si>
+  <si>
+    <t>2020/05/20</t>
+  </si>
+  <si>
+    <t>2020/05/21</t>
+  </si>
+  <si>
+    <t>2020/05/22</t>
+  </si>
+  <si>
+    <t>2020/05/23</t>
+  </si>
+  <si>
+    <t>2020/05/24</t>
+  </si>
+  <si>
+    <t>2020/05/25</t>
+  </si>
+  <si>
+    <t>2020/05/26</t>
+  </si>
+  <si>
+    <t>2020/05/27</t>
   </si>
   <si>
     <t>ICT</t>
@@ -614,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L441"/>
+  <dimension ref="A1:L553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -684,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -722,7 +770,7 @@
         <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -760,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K4">
         <v>13</v>
@@ -798,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -836,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -874,7 +922,7 @@
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -912,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -950,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -988,7 +1036,7 @@
         <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1026,7 +1074,7 @@
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1064,7 +1112,7 @@
         <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K12">
         <v>12</v>
@@ -1102,7 +1150,7 @@
         <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1140,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1178,7 +1226,7 @@
         <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1216,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1254,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1292,7 +1340,7 @@
         <v>5</v>
       </c>
       <c r="J18" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1330,7 +1378,7 @@
         <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1368,7 +1416,7 @@
         <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K20">
         <v>13</v>
@@ -1406,7 +1454,7 @@
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1444,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1482,7 +1530,7 @@
         <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1520,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1558,7 +1606,7 @@
         <v>7</v>
       </c>
       <c r="J25" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1596,7 +1644,7 @@
         <v>5</v>
       </c>
       <c r="J26" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -1634,7 +1682,7 @@
         <v>6</v>
       </c>
       <c r="J27" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1672,7 +1720,7 @@
         <v>12</v>
       </c>
       <c r="J28" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K28">
         <v>13</v>
@@ -1710,7 +1758,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1748,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1786,7 +1834,7 @@
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K31">
         <v>6</v>
@@ -1824,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -1862,7 +1910,7 @@
         <v>6</v>
       </c>
       <c r="J33" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -1900,7 +1948,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K34">
         <v>4</v>
@@ -1938,7 +1986,7 @@
         <v>6</v>
       </c>
       <c r="J35" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -1976,7 +2024,7 @@
         <v>8</v>
       </c>
       <c r="J36" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K36">
         <v>15</v>
@@ -2014,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2052,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2090,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K39">
         <v>6</v>
@@ -2128,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2166,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K41">
         <v>3</v>
@@ -2204,7 +2252,7 @@
         <v>4</v>
       </c>
       <c r="J42" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K42">
         <v>4</v>
@@ -2242,7 +2290,7 @@
         <v>12</v>
       </c>
       <c r="J43" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -2280,7 +2328,7 @@
         <v>8</v>
       </c>
       <c r="J44" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K44">
         <v>32</v>
@@ -2318,7 +2366,7 @@
         <v>6</v>
       </c>
       <c r="J45" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -2356,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -2394,7 +2442,7 @@
         <v>21</v>
       </c>
       <c r="J47" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K47">
         <v>10</v>
@@ -2432,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -2470,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -2508,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -2546,7 +2594,7 @@
         <v>7</v>
       </c>
       <c r="J51" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K51">
         <v>3</v>
@@ -2584,7 +2632,7 @@
         <v>17</v>
       </c>
       <c r="J52" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -2622,7 +2670,7 @@
         <v>5</v>
       </c>
       <c r="J53" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K53">
         <v>147</v>
@@ -2660,7 +2708,7 @@
         <v>25</v>
       </c>
       <c r="J54" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K54">
         <v>15</v>
@@ -2698,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -2736,7 +2784,7 @@
         <v>33</v>
       </c>
       <c r="J56" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K56">
         <v>14</v>
@@ -2774,7 +2822,7 @@
         <v>11</v>
       </c>
       <c r="J57" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -2812,7 +2860,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K58">
         <v>3</v>
@@ -2850,7 +2898,7 @@
         <v>8</v>
       </c>
       <c r="J59" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -2888,7 +2936,7 @@
         <v>17</v>
       </c>
       <c r="J60" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K60">
         <v>26</v>
@@ -2926,7 +2974,7 @@
         <v>11</v>
       </c>
       <c r="J61" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K61">
         <v>169</v>
@@ -2964,7 +3012,7 @@
         <v>6</v>
       </c>
       <c r="J62" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K62">
         <v>17</v>
@@ -3002,7 +3050,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -3040,7 +3088,7 @@
         <v>79</v>
       </c>
       <c r="J64" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K64">
         <v>15</v>
@@ -3078,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -3116,7 +3164,7 @@
         <v>4</v>
       </c>
       <c r="J66" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K66">
         <v>5</v>
@@ -3154,7 +3202,7 @@
         <v>19</v>
       </c>
       <c r="J67" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K67">
         <v>3</v>
@@ -3192,7 +3240,7 @@
         <v>29</v>
       </c>
       <c r="J68" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K68">
         <v>33</v>
@@ -3230,7 +3278,7 @@
         <v>22</v>
       </c>
       <c r="J69" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K69">
         <v>205</v>
@@ -3268,7 +3316,7 @@
         <v>18</v>
       </c>
       <c r="J70" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K70">
         <v>17</v>
@@ -3306,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -3344,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K72">
         <v>23</v>
@@ -3382,7 +3430,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -3420,7 +3468,7 @@
         <v>35</v>
       </c>
       <c r="J74" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K74">
         <v>11</v>
@@ -3458,7 +3506,7 @@
         <v>34</v>
       </c>
       <c r="J75" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K75">
         <v>8</v>
@@ -3496,7 +3544,7 @@
         <v>24</v>
       </c>
       <c r="J76" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K76">
         <v>80</v>
@@ -3534,7 +3582,7 @@
         <v>9</v>
       </c>
       <c r="J77" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K77">
         <v>242</v>
@@ -3572,7 +3620,7 @@
         <v>22</v>
       </c>
       <c r="J78" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K78">
         <v>21</v>
@@ -3610,7 +3658,7 @@
         <v>12</v>
       </c>
       <c r="J79" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -3648,7 +3696,7 @@
         <v>364</v>
       </c>
       <c r="J80" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K80">
         <v>81</v>
@@ -3686,7 +3734,7 @@
         <v>13</v>
       </c>
       <c r="J81" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -3724,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K82">
         <v>21</v>
@@ -3762,7 +3810,7 @@
         <v>34</v>
       </c>
       <c r="J83" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K83">
         <v>9</v>
@@ -3800,7 +3848,7 @@
         <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K84">
         <v>96</v>
@@ -3838,7 +3886,7 @@
         <v>28</v>
       </c>
       <c r="J85" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K85">
         <v>249</v>
@@ -3876,7 +3924,7 @@
         <v>31</v>
       </c>
       <c r="J86" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K86">
         <v>21</v>
@@ -3914,7 +3962,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -3952,7 +4000,7 @@
         <v>47</v>
       </c>
       <c r="J88" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K88">
         <v>81</v>
@@ -3990,7 +4038,7 @@
         <v>4</v>
       </c>
       <c r="J89" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -4028,7 +4076,7 @@
         <v>220</v>
       </c>
       <c r="J90" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K90">
         <v>30</v>
@@ -4066,7 +4114,7 @@
         <v>17</v>
       </c>
       <c r="J91" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K91">
         <v>9</v>
@@ -4104,7 +4152,7 @@
         <v>50</v>
       </c>
       <c r="J92" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K92">
         <v>152</v>
@@ -4142,7 +4190,7 @@
         <v>22</v>
       </c>
       <c r="J93" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K93">
         <v>392</v>
@@ -4180,7 +4228,7 @@
         <v>25</v>
       </c>
       <c r="J94" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K94">
         <v>29</v>
@@ -4218,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -4256,7 +4304,7 @@
         <v>593</v>
       </c>
       <c r="J96" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K96">
         <v>104</v>
@@ -4294,7 +4342,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K97">
         <v>1</v>
@@ -4332,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K98">
         <v>55</v>
@@ -4370,7 +4418,7 @@
         <v>10</v>
       </c>
       <c r="J99" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K99">
         <v>13</v>
@@ -4408,7 +4456,7 @@
         <v>11</v>
       </c>
       <c r="J100" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K100">
         <v>225</v>
@@ -4446,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K101">
         <v>328</v>
@@ -4484,7 +4532,7 @@
         <v>41</v>
       </c>
       <c r="J102" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K102">
         <v>28</v>
@@ -4522,7 +4570,7 @@
         <v>25</v>
       </c>
       <c r="J103" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K103">
         <v>107</v>
@@ -4560,7 +4608,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K104">
         <v>1</v>
@@ -4598,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K105">
         <v>71</v>
@@ -4636,7 +4684,7 @@
         <v>28</v>
       </c>
       <c r="J106" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K106">
         <v>13</v>
@@ -4674,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K107">
         <v>249</v>
@@ -4712,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K108">
         <v>389</v>
@@ -4750,7 +4798,7 @@
         <v>235</v>
       </c>
       <c r="J109" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K109">
         <v>35</v>
@@ -4788,7 +4836,7 @@
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K110">
         <v>109</v>
@@ -4826,7 +4874,7 @@
         <v>16</v>
       </c>
       <c r="J111" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K111">
         <v>1</v>
@@ -4864,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K112">
         <v>79</v>
@@ -4902,7 +4950,7 @@
         <v>10</v>
       </c>
       <c r="J113" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K113">
         <v>16</v>
@@ -4940,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K114">
         <v>293</v>
@@ -4978,7 +5026,7 @@
         <v>6</v>
       </c>
       <c r="J115" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K115">
         <v>392</v>
@@ -5016,7 +5064,7 @@
         <v>98</v>
       </c>
       <c r="J116" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K116">
         <v>75</v>
@@ -5054,7 +5102,7 @@
         <v>30</v>
       </c>
       <c r="J117" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K117">
         <v>109</v>
@@ -5092,7 +5140,7 @@
         <v>5</v>
       </c>
       <c r="J118" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K118">
         <v>1</v>
@@ -5130,7 +5178,7 @@
         <v>37</v>
       </c>
       <c r="J119" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K119">
         <v>80</v>
@@ -5168,7 +5216,7 @@
         <v>19</v>
       </c>
       <c r="J120" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K120">
         <v>8</v>
@@ -5206,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K121">
         <v>318</v>
@@ -5244,7 +5292,7 @@
         <v>37</v>
       </c>
       <c r="J122" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K122">
         <v>398</v>
@@ -5282,7 +5330,7 @@
         <v>138</v>
       </c>
       <c r="J123" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K123">
         <v>75</v>
@@ -5320,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K124">
         <v>130</v>
@@ -5358,7 +5406,7 @@
         <v>12</v>
       </c>
       <c r="J125" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K125">
         <v>1</v>
@@ -5396,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K126">
         <v>83</v>
@@ -5434,7 +5482,7 @@
         <v>151</v>
       </c>
       <c r="J127" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K127">
         <v>12</v>
@@ -5472,7 +5520,7 @@
         <v>741</v>
       </c>
       <c r="J128" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K128">
         <v>402</v>
@@ -5510,7 +5558,7 @@
         <v>416</v>
       </c>
       <c r="J129" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K129">
         <v>402</v>
@@ -5548,7 +5596,7 @@
         <v>10</v>
       </c>
       <c r="J130" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K130">
         <v>118</v>
@@ -5586,7 +5634,7 @@
         <v>57</v>
       </c>
       <c r="J131" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K131">
         <v>130</v>
@@ -5624,7 +5672,7 @@
         <v>6</v>
       </c>
       <c r="J132" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K132">
         <v>2</v>
@@ -5662,7 +5710,7 @@
         <v>430</v>
       </c>
       <c r="J133" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K133">
         <v>88</v>
@@ -5700,7 +5748,7 @@
         <v>198</v>
       </c>
       <c r="J134" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K134">
         <v>8</v>
@@ -5738,7 +5786,7 @@
         <v>210</v>
       </c>
       <c r="J135" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K135">
         <v>237</v>
@@ -5776,7 +5824,7 @@
         <v>351</v>
       </c>
       <c r="J136" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K136">
         <v>294</v>
@@ -5814,7 +5862,7 @@
         <v>104</v>
       </c>
       <c r="J137" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K137">
         <v>50</v>
@@ -5852,7 +5900,7 @@
         <v>22</v>
       </c>
       <c r="J138" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K138">
         <v>122</v>
@@ -5890,7 +5938,7 @@
         <v>7</v>
       </c>
       <c r="J139" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K139">
         <v>2</v>
@@ -5928,7 +5976,7 @@
         <v>45</v>
       </c>
       <c r="J140" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K140">
         <v>12</v>
@@ -5966,7 +6014,7 @@
         <v>157</v>
       </c>
       <c r="J141" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K141">
         <v>11</v>
@@ -6004,7 +6052,7 @@
         <v>182</v>
       </c>
       <c r="J142" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K142">
         <v>247</v>
@@ -6042,7 +6090,7 @@
         <v>515</v>
       </c>
       <c r="J143" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K143">
         <v>294</v>
@@ -6080,7 +6128,7 @@
         <v>108</v>
       </c>
       <c r="J144" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K144">
         <v>60</v>
@@ -6118,7 +6166,7 @@
         <v>136</v>
       </c>
       <c r="J145" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K145">
         <v>130</v>
@@ -6156,7 +6204,7 @@
         <v>7</v>
       </c>
       <c r="J146" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K146">
         <v>2</v>
@@ -6194,7 +6242,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K147">
         <v>12</v>
@@ -6232,7 +6280,7 @@
         <v>133</v>
       </c>
       <c r="J148" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K148">
         <v>13</v>
@@ -6270,7 +6318,7 @@
         <v>95</v>
       </c>
       <c r="J149" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K149">
         <v>253</v>
@@ -6308,7 +6356,7 @@
         <v>623</v>
       </c>
       <c r="J150" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K150">
         <v>306</v>
@@ -6346,7 +6394,7 @@
         <v>94</v>
       </c>
       <c r="J151" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K151">
         <v>60</v>
@@ -6384,7 +6432,7 @@
         <v>94</v>
       </c>
       <c r="J152" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K152">
         <v>133</v>
@@ -6422,7 +6470,7 @@
         <v>8</v>
       </c>
       <c r="J153" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K153">
         <v>6</v>
@@ -6460,7 +6508,7 @@
         <v>74</v>
       </c>
       <c r="J154" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K154">
         <v>12</v>
@@ -6498,7 +6546,7 @@
         <v>195</v>
       </c>
       <c r="J155" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K155">
         <v>16</v>
@@ -6536,7 +6584,7 @@
         <v>154</v>
       </c>
       <c r="J156" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K156">
         <v>303</v>
@@ -6574,7 +6622,7 @@
         <v>383</v>
       </c>
       <c r="J157" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K157">
         <v>315</v>
@@ -6612,7 +6660,7 @@
         <v>312</v>
       </c>
       <c r="J158" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K158">
         <v>70</v>
@@ -6650,7 +6698,7 @@
         <v>130</v>
       </c>
       <c r="J159" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K159">
         <v>139</v>
@@ -6688,7 +6736,7 @@
         <v>72</v>
       </c>
       <c r="J160" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K160">
         <v>6</v>
@@ -6726,7 +6774,7 @@
         <v>18</v>
       </c>
       <c r="J161" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K161">
         <v>12</v>
@@ -6764,7 +6812,7 @@
         <v>122</v>
       </c>
       <c r="J162" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K162">
         <v>16</v>
@@ -6802,7 +6850,7 @@
         <v>692</v>
       </c>
       <c r="J163" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K163">
         <v>357</v>
@@ -6840,7 +6888,7 @@
         <v>250</v>
       </c>
       <c r="J164" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K164">
         <v>385</v>
@@ -6878,7 +6926,7 @@
         <v>190</v>
       </c>
       <c r="J165" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K165">
         <v>74</v>
@@ -6916,7 +6964,7 @@
         <v>109</v>
       </c>
       <c r="J166" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K166">
         <v>124</v>
@@ -6954,7 +7002,7 @@
         <v>62</v>
       </c>
       <c r="J167" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K167">
         <v>6</v>
@@ -6992,7 +7040,7 @@
         <v>11</v>
       </c>
       <c r="J168" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K168">
         <v>12</v>
@@ -7030,7 +7078,7 @@
         <v>294</v>
       </c>
       <c r="J169" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K169">
         <v>15</v>
@@ -7068,7 +7116,7 @@
         <v>624</v>
       </c>
       <c r="J170" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K170">
         <v>384</v>
@@ -7106,7 +7154,7 @@
         <v>348</v>
       </c>
       <c r="J171" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K171">
         <v>387</v>
@@ -7144,7 +7192,7 @@
         <v>290</v>
       </c>
       <c r="J172" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K172">
         <v>84</v>
@@ -7182,7 +7230,7 @@
         <v>115</v>
       </c>
       <c r="J173" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K173">
         <v>125</v>
@@ -7220,7 +7268,7 @@
         <v>10</v>
       </c>
       <c r="J174" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K174">
         <v>9</v>
@@ -7258,7 +7306,7 @@
         <v>3</v>
       </c>
       <c r="J175" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K175">
         <v>12</v>
@@ -7296,7 +7344,7 @@
         <v>398</v>
       </c>
       <c r="J176" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K176">
         <v>18</v>
@@ -7334,7 +7382,7 @@
         <v>436</v>
       </c>
       <c r="J177" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K177">
         <v>456</v>
@@ -7372,7 +7420,7 @@
         <v>578</v>
       </c>
       <c r="J178" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K178">
         <v>410</v>
@@ -7410,7 +7458,7 @@
         <v>124</v>
       </c>
       <c r="J179" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K179">
         <v>92</v>
@@ -7448,7 +7496,7 @@
         <v>122</v>
       </c>
       <c r="J180" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K180">
         <v>125</v>
@@ -7486,7 +7534,7 @@
         <v>73</v>
       </c>
       <c r="J181" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K181">
         <v>9</v>
@@ -7524,7 +7572,7 @@
         <v>67</v>
       </c>
       <c r="J182" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K182">
         <v>12</v>
@@ -7562,7 +7610,7 @@
         <v>21</v>
       </c>
       <c r="J183" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K183">
         <v>11</v>
@@ -7600,7 +7648,7 @@
         <v>230</v>
       </c>
       <c r="J184" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K184">
         <v>132</v>
@@ -7638,7 +7686,7 @@
         <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K185">
         <v>12</v>
@@ -7676,7 +7724,7 @@
         <v>174</v>
       </c>
       <c r="J186" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K186">
         <v>14</v>
@@ -7714,7 +7762,7 @@
         <v>431</v>
       </c>
       <c r="J187" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K187">
         <v>92</v>
@@ -7752,7 +7800,7 @@
         <v>334</v>
       </c>
       <c r="J188" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K188">
         <v>506</v>
@@ -7790,7 +7838,7 @@
         <v>1121</v>
       </c>
       <c r="J189" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K189">
         <v>391</v>
@@ -7828,7 +7876,7 @@
         <v>42</v>
       </c>
       <c r="J190" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K190">
         <v>11</v>
@@ -7866,7 +7914,7 @@
         <v>132</v>
       </c>
       <c r="J191" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K191">
         <v>133</v>
@@ -7904,7 +7952,7 @@
         <v>95</v>
       </c>
       <c r="J192" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K192">
         <v>12</v>
@@ -7942,7 +7990,7 @@
         <v>175</v>
       </c>
       <c r="J193" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K193">
         <v>10</v>
@@ -7980,7 +8028,7 @@
         <v>179</v>
       </c>
       <c r="J194" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K194">
         <v>95</v>
@@ -8018,7 +8066,7 @@
         <v>2403</v>
       </c>
       <c r="J195" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K195">
         <v>526</v>
@@ -8056,7 +8104,7 @@
         <v>221</v>
       </c>
       <c r="J196" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K196">
         <v>390</v>
@@ -8094,7 +8142,7 @@
         <v>15</v>
       </c>
       <c r="J197" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K197">
         <v>14</v>
@@ -8132,7 +8180,7 @@
         <v>419</v>
       </c>
       <c r="J198" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K198">
         <v>112</v>
@@ -8170,7 +8218,7 @@
         <v>4</v>
       </c>
       <c r="J199" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K199">
         <v>12</v>
@@ -8208,7 +8256,7 @@
         <v>127</v>
       </c>
       <c r="J200" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K200">
         <v>11</v>
@@ -8246,7 +8294,7 @@
         <v>334</v>
       </c>
       <c r="J201" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K201">
         <v>120</v>
@@ -8284,7 +8332,7 @@
         <v>823</v>
       </c>
       <c r="J202" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K202">
         <v>653</v>
@@ -8322,7 +8370,7 @@
         <v>285</v>
       </c>
       <c r="J203" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K203">
         <v>363</v>
@@ -8360,7 +8408,7 @@
         <v>84</v>
       </c>
       <c r="J204" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K204">
         <v>17</v>
@@ -8398,7 +8446,7 @@
         <v>371</v>
       </c>
       <c r="J205" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K205">
         <v>87</v>
@@ -8436,7 +8484,7 @@
         <v>49</v>
       </c>
       <c r="J206" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K206">
         <v>14</v>
@@ -8474,7 +8522,7 @@
         <v>50</v>
       </c>
       <c r="J207" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K207">
         <v>17</v>
@@ -8512,7 +8560,7 @@
         <v>134</v>
       </c>
       <c r="J208" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K208">
         <v>138</v>
@@ -8550,7 +8598,7 @@
         <v>704</v>
       </c>
       <c r="J209" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K209">
         <v>751</v>
@@ -8588,7 +8636,7 @@
         <v>658</v>
       </c>
       <c r="J210" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K210">
         <v>287</v>
@@ -8626,7 +8674,7 @@
         <v>50</v>
       </c>
       <c r="J211" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K211">
         <v>18</v>
@@ -8664,7 +8712,7 @@
         <v>93</v>
       </c>
       <c r="J212" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K212">
         <v>77</v>
@@ -8702,7 +8750,7 @@
         <v>64</v>
       </c>
       <c r="J213" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K213">
         <v>14</v>
@@ -8740,7 +8788,7 @@
         <v>175</v>
       </c>
       <c r="J214" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K214">
         <v>17</v>
@@ -8778,7 +8826,7 @@
         <v>52</v>
       </c>
       <c r="J215" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K215">
         <v>197</v>
@@ -8816,7 +8864,7 @@
         <v>961</v>
       </c>
       <c r="J216" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K216">
         <v>713</v>
@@ -8854,7 +8902,7 @@
         <v>634</v>
       </c>
       <c r="J217" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K217">
         <v>303</v>
@@ -8892,7 +8940,7 @@
         <v>47</v>
       </c>
       <c r="J218" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K218">
         <v>27</v>
@@ -8930,7 +8978,7 @@
         <v>160</v>
       </c>
       <c r="J219" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K219">
         <v>77</v>
@@ -8968,7 +9016,7 @@
         <v>36</v>
       </c>
       <c r="J220" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K220">
         <v>14</v>
@@ -9006,7 +9054,7 @@
         <v>137</v>
       </c>
       <c r="J221" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K221">
         <v>11</v>
@@ -9044,7 +9092,7 @@
         <v>254</v>
       </c>
       <c r="J222" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K222">
         <v>168</v>
@@ -9082,7 +9130,7 @@
         <v>1394</v>
       </c>
       <c r="J223" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K223">
         <v>752</v>
@@ -9120,7 +9168,7 @@
         <v>758</v>
       </c>
       <c r="J224" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K224">
         <v>354</v>
@@ -9158,7 +9206,7 @@
         <v>50</v>
       </c>
       <c r="J225" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K225">
         <v>32</v>
@@ -9196,7 +9244,7 @@
         <v>300</v>
       </c>
       <c r="J226" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K226">
         <v>70</v>
@@ -9234,7 +9282,7 @@
         <v>123</v>
       </c>
       <c r="J227" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K227">
         <v>14</v>
@@ -9272,7 +9320,7 @@
         <v>142</v>
       </c>
       <c r="J228" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K228">
         <v>18</v>
@@ -9310,7 +9358,7 @@
         <v>365</v>
       </c>
       <c r="J229" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K229">
         <v>201</v>
@@ -9348,7 +9396,7 @@
         <v>1979</v>
       </c>
       <c r="J230" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K230">
         <v>745</v>
@@ -9386,7 +9434,7 @@
         <v>642</v>
       </c>
       <c r="J231" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K231">
         <v>322</v>
@@ -9424,7 +9472,7 @@
         <v>114</v>
       </c>
       <c r="J232" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K232">
         <v>33</v>
@@ -9462,7 +9510,7 @@
         <v>100</v>
       </c>
       <c r="J233" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K233">
         <v>68</v>
@@ -9500,7 +9548,7 @@
         <v>90</v>
       </c>
       <c r="J234" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K234">
         <v>17</v>
@@ -9538,7 +9586,7 @@
         <v>105</v>
       </c>
       <c r="J235" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K235">
         <v>15</v>
@@ -9576,7 +9624,7 @@
         <v>81</v>
       </c>
       <c r="J236" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K236">
         <v>201</v>
@@ -9614,7 +9662,7 @@
         <v>2130</v>
       </c>
       <c r="J237" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K237">
         <v>764</v>
@@ -9652,7 +9700,7 @@
         <v>586</v>
       </c>
       <c r="J238" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K238">
         <v>313</v>
@@ -9690,7 +9738,7 @@
         <v>68</v>
       </c>
       <c r="J239" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K239">
         <v>34</v>
@@ -9728,7 +9776,7 @@
         <v>83</v>
       </c>
       <c r="J240" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K240">
         <v>62</v>
@@ -9766,7 +9814,7 @@
         <v>64</v>
       </c>
       <c r="J241" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K241">
         <v>9</v>
@@ -9804,7 +9852,7 @@
         <v>90</v>
       </c>
       <c r="J242" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K242">
         <v>17</v>
@@ -9842,7 +9890,7 @@
         <v>464</v>
       </c>
       <c r="J243" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K243">
         <v>210</v>
@@ -9880,7 +9928,7 @@
         <v>2670</v>
       </c>
       <c r="J244" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K244">
         <v>765</v>
@@ -9918,7 +9966,7 @@
         <v>531</v>
       </c>
       <c r="J245" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K245">
         <v>343</v>
@@ -9956,7 +10004,7 @@
         <v>97</v>
       </c>
       <c r="J246" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K246">
         <v>38</v>
@@ -9994,7 +10042,7 @@
         <v>123</v>
       </c>
       <c r="J247" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K247">
         <v>40</v>
@@ -10032,7 +10080,7 @@
         <v>65</v>
       </c>
       <c r="J248" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K248">
         <v>9</v>
@@ -10070,7 +10118,7 @@
         <v>266</v>
       </c>
       <c r="J249" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K249">
         <v>24</v>
@@ -10108,7 +10156,7 @@
         <v>73</v>
       </c>
       <c r="J250" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K250">
         <v>211</v>
@@ -10146,7 +10194,7 @@
         <v>875</v>
       </c>
       <c r="J251" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K251">
         <v>832</v>
@@ -10184,7 +10232,7 @@
         <v>569</v>
       </c>
       <c r="J252" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K252">
         <v>347</v>
@@ -10222,7 +10270,7 @@
         <v>82</v>
       </c>
       <c r="J253" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K253">
         <v>39</v>
@@ -10260,7 +10308,7 @@
         <v>119</v>
       </c>
       <c r="J254" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K254">
         <v>34</v>
@@ -10298,7 +10346,7 @@
         <v>91</v>
       </c>
       <c r="J255" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K255">
         <v>9</v>
@@ -10336,7 +10384,7 @@
         <v>111</v>
       </c>
       <c r="J256" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K256">
         <v>19</v>
@@ -10374,7 +10422,7 @@
         <v>478</v>
       </c>
       <c r="J257" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K257">
         <v>211</v>
@@ -10412,7 +10460,7 @@
         <v>2490</v>
       </c>
       <c r="J258" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K258">
         <v>702</v>
@@ -10450,7 +10498,7 @@
         <v>531</v>
       </c>
       <c r="J259" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K259">
         <v>354</v>
@@ -10488,7 +10536,7 @@
         <v>37</v>
       </c>
       <c r="J260" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K260">
         <v>42</v>
@@ -10526,7 +10574,7 @@
         <v>95</v>
       </c>
       <c r="J261" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K261">
         <v>20</v>
@@ -10564,7 +10612,7 @@
         <v>98</v>
       </c>
       <c r="J262" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K262">
         <v>5</v>
@@ -10602,7 +10650,7 @@
         <v>120</v>
       </c>
       <c r="J263" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K263">
         <v>16</v>
@@ -10640,7 +10688,7 @@
         <v>305</v>
       </c>
       <c r="J264" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K264">
         <v>211</v>
@@ -10678,7 +10726,7 @@
         <v>2841</v>
       </c>
       <c r="J265" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K265">
         <v>759</v>
@@ -10716,7 +10764,7 @@
         <v>663</v>
       </c>
       <c r="J266" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K266">
         <v>443</v>
@@ -10754,7 +10802,7 @@
         <v>52</v>
       </c>
       <c r="J267" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K267">
         <v>37</v>
@@ -10792,7 +10840,7 @@
         <v>72</v>
       </c>
       <c r="J268" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K268">
         <v>25</v>
@@ -10830,7 +10878,7 @@
         <v>97</v>
       </c>
       <c r="J269" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K269">
         <v>5</v>
@@ -10868,7 +10916,7 @@
         <v>351</v>
       </c>
       <c r="J270" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K270">
         <v>17</v>
@@ -10906,7 +10954,7 @@
         <v>322</v>
       </c>
       <c r="J271" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K271">
         <v>211</v>
@@ -10944,7 +10992,7 @@
         <v>3077</v>
       </c>
       <c r="J272" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K272">
         <v>756</v>
@@ -10982,7 +11030,7 @@
         <v>1523</v>
       </c>
       <c r="J273" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K273">
         <v>319</v>
@@ -11020,7 +11068,7 @@
         <v>54</v>
       </c>
       <c r="J274" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K274">
         <v>37</v>
@@ -11058,7 +11106,7 @@
         <v>120</v>
       </c>
       <c r="J275" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K275">
         <v>33</v>
@@ -11096,7 +11144,7 @@
         <v>93</v>
       </c>
       <c r="J276" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K276">
         <v>5</v>
@@ -11134,7 +11182,7 @@
         <v>326</v>
       </c>
       <c r="J277" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K277">
         <v>22</v>
@@ -11172,7 +11220,7 @@
         <v>348</v>
       </c>
       <c r="J278" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K278">
         <v>230</v>
@@ -11210,7 +11258,7 @@
         <v>1523</v>
       </c>
       <c r="J279" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K279">
         <v>767</v>
@@ -11248,7 +11296,7 @@
         <v>2874</v>
       </c>
       <c r="J280" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K280">
         <v>267</v>
@@ -11286,7 +11334,7 @@
         <v>40</v>
       </c>
       <c r="J281" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K281">
         <v>39</v>
@@ -11324,7 +11372,7 @@
         <v>535</v>
       </c>
       <c r="J282" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K282">
         <v>40</v>
@@ -11362,7 +11410,7 @@
         <v>381</v>
       </c>
       <c r="J283" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K283">
         <v>5</v>
@@ -11400,7 +11448,7 @@
         <v>329</v>
       </c>
       <c r="J284" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K284">
         <v>13</v>
@@ -11438,7 +11486,7 @@
         <v>382</v>
       </c>
       <c r="J285" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K285">
         <v>280</v>
@@ -11476,7 +11524,7 @@
         <v>1919</v>
       </c>
       <c r="J286" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K286">
         <v>787</v>
@@ -11514,7 +11562,7 @@
         <v>2372</v>
       </c>
       <c r="J287" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K287">
         <v>717</v>
@@ -11552,7 +11600,7 @@
         <v>54</v>
       </c>
       <c r="J288" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K288">
         <v>39</v>
@@ -11590,7 +11638,7 @@
         <v>460</v>
       </c>
       <c r="J289" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K289">
         <v>51</v>
@@ -11628,7 +11676,7 @@
         <v>116</v>
       </c>
       <c r="J290" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K290">
         <v>5</v>
@@ -11666,7 +11714,7 @@
         <v>378</v>
       </c>
       <c r="J291" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K291">
         <v>15</v>
@@ -11704,7 +11752,7 @@
         <v>391</v>
       </c>
       <c r="J292" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K292">
         <v>294</v>
@@ -11742,7 +11790,7 @@
         <v>1954</v>
       </c>
       <c r="J293" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K293">
         <v>992</v>
@@ -11780,7 +11828,7 @@
         <v>1666</v>
       </c>
       <c r="J294" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K294">
         <v>764</v>
@@ -11818,7 +11866,7 @@
         <v>46</v>
       </c>
       <c r="J295" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K295">
         <v>39</v>
@@ -11856,7 +11904,7 @@
         <v>308</v>
       </c>
       <c r="J296" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K296">
         <v>68</v>
@@ -11894,7 +11942,7 @@
         <v>228</v>
       </c>
       <c r="J297" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K297">
         <v>4</v>
@@ -11932,7 +11980,7 @@
         <v>119</v>
       </c>
       <c r="J298" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K298">
         <v>16</v>
@@ -11970,7 +12018,7 @@
         <v>559</v>
       </c>
       <c r="J299" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K299">
         <v>296</v>
@@ -12008,7 +12056,7 @@
         <v>885</v>
       </c>
       <c r="J300" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K300">
         <v>1002</v>
@@ -12046,7 +12094,7 @@
         <v>1520</v>
       </c>
       <c r="J301" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K301">
         <v>791</v>
@@ -12084,7 +12132,7 @@
         <v>80</v>
       </c>
       <c r="J302" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K302">
         <v>34</v>
@@ -12122,7 +12170,7 @@
         <v>598</v>
       </c>
       <c r="J303" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K303">
         <v>67</v>
@@ -12160,7 +12208,7 @@
         <v>170</v>
       </c>
       <c r="J304" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K304">
         <v>4</v>
@@ -12198,7 +12246,7 @@
         <v>248</v>
       </c>
       <c r="J305" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K305">
         <v>14</v>
@@ -12236,7 +12284,7 @@
         <v>755</v>
       </c>
       <c r="J306" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K306">
         <v>328</v>
@@ -12274,7 +12322,7 @@
         <v>1806</v>
       </c>
       <c r="J307" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K307">
         <v>1151</v>
@@ -12312,7 +12360,7 @@
         <v>1600</v>
       </c>
       <c r="J308" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K308">
         <v>845</v>
@@ -12350,7 +12398,7 @@
         <v>6</v>
       </c>
       <c r="J309" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K309">
         <v>28</v>
@@ -12388,7 +12436,7 @@
         <v>619</v>
       </c>
       <c r="J310" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K310">
         <v>82</v>
@@ -12426,7 +12474,7 @@
         <v>118</v>
       </c>
       <c r="J311" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K311">
         <v>10</v>
@@ -12464,7 +12512,7 @@
         <v>483</v>
       </c>
       <c r="J312" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K312">
         <v>8</v>
@@ -12502,7 +12550,7 @@
         <v>704</v>
       </c>
       <c r="J313" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K313">
         <v>351</v>
@@ -12540,7 +12588,7 @@
         <v>1812</v>
       </c>
       <c r="J314" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K314">
         <v>1290</v>
@@ -12578,7 +12626,7 @@
         <v>2097</v>
       </c>
       <c r="J315" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K315">
         <v>1010</v>
@@ -12616,7 +12664,7 @@
         <v>55</v>
       </c>
       <c r="J316" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K316">
         <v>30</v>
@@ -12654,7 +12702,7 @@
         <v>708</v>
       </c>
       <c r="J317" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K317">
         <v>79</v>
@@ -12692,7 +12740,7 @@
         <v>192</v>
       </c>
       <c r="J318" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K318">
         <v>10</v>
@@ -12730,7 +12778,7 @@
         <v>588</v>
       </c>
       <c r="J319" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K319">
         <v>12</v>
@@ -12768,7 +12816,7 @@
         <v>1126</v>
       </c>
       <c r="J320" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K320">
         <v>373</v>
@@ -12806,7 +12854,7 @@
         <v>1192</v>
       </c>
       <c r="J321" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K321">
         <v>1300</v>
@@ -12844,7 +12892,7 @@
         <v>2682</v>
       </c>
       <c r="J322" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K322">
         <v>1063</v>
@@ -12882,7 +12930,7 @@
         <v>51</v>
       </c>
       <c r="J323" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K323">
         <v>27</v>
@@ -12920,7 +12968,7 @@
         <v>436</v>
       </c>
       <c r="J324" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K324">
         <v>77</v>
@@ -12958,7 +13006,7 @@
         <v>195</v>
       </c>
       <c r="J325" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K325">
         <v>10</v>
@@ -12996,7 +13044,7 @@
         <v>540</v>
       </c>
       <c r="J326" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K326">
         <v>14</v>
@@ -13034,7 +13082,7 @@
         <v>1146</v>
       </c>
       <c r="J327" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K327">
         <v>409</v>
@@ -13072,7 +13120,7 @@
         <v>969</v>
       </c>
       <c r="J328" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K328">
         <v>1331</v>
@@ -13110,7 +13158,7 @@
         <v>2554</v>
       </c>
       <c r="J329" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K329">
         <v>1205</v>
@@ -13148,7 +13196,7 @@
         <v>66</v>
       </c>
       <c r="J330" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K330">
         <v>23</v>
@@ -13186,7 +13234,7 @@
         <v>1610</v>
       </c>
       <c r="J331" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K331">
         <v>86</v>
@@ -13224,7 +13272,7 @@
         <v>157</v>
       </c>
       <c r="J332" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K332">
         <v>10</v>
@@ -13262,7 +13310,7 @@
         <v>396</v>
       </c>
       <c r="J333" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K333">
         <v>15</v>
@@ -13300,7 +13348,7 @@
         <v>821</v>
       </c>
       <c r="J334" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K334">
         <v>455</v>
@@ -13338,7 +13386,7 @@
         <v>1330</v>
       </c>
       <c r="J335" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K335">
         <v>1594</v>
@@ -13376,7 +13424,7 @@
         <v>2599</v>
       </c>
       <c r="J336" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K336">
         <v>1206</v>
@@ -13414,7 +13462,7 @@
         <v>66</v>
       </c>
       <c r="J337" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K337">
         <v>23</v>
@@ -13452,7 +13500,7 @@
         <v>1610</v>
       </c>
       <c r="J338" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K338">
         <v>86</v>
@@ -13490,7 +13538,7 @@
         <v>157</v>
       </c>
       <c r="J339" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K339">
         <v>10</v>
@@ -13528,7 +13576,7 @@
         <v>396</v>
       </c>
       <c r="J340" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K340">
         <v>15</v>
@@ -13566,7 +13614,7 @@
         <v>821</v>
       </c>
       <c r="J341" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K341">
         <v>455</v>
@@ -13604,7 +13652,7 @@
         <v>1330</v>
       </c>
       <c r="J342" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K342">
         <v>1594</v>
@@ -13642,7 +13690,7 @@
         <v>2599</v>
       </c>
       <c r="J343" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K343">
         <v>1206</v>
@@ -13680,7 +13728,7 @@
         <v>104</v>
       </c>
       <c r="J344" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K344">
         <v>24</v>
@@ -13718,7 +13766,7 @@
         <v>875</v>
       </c>
       <c r="J345" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K345">
         <v>90</v>
@@ -13756,7 +13804,7 @@
         <v>84</v>
       </c>
       <c r="J346" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K346">
         <v>10</v>
@@ -13794,7 +13842,7 @@
         <v>298</v>
       </c>
       <c r="J347" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K347">
         <v>15</v>
@@ -13832,7 +13880,7 @@
         <v>959</v>
       </c>
       <c r="J348" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K348">
         <v>484</v>
@@ -13870,7 +13918,7 @@
         <v>228</v>
       </c>
       <c r="J349" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K349">
         <v>1602</v>
@@ -13908,7 +13956,7 @@
         <v>3035</v>
       </c>
       <c r="J350" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K350">
         <v>1230</v>
@@ -13946,7 +13994,7 @@
         <v>21</v>
       </c>
       <c r="J351" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K351">
         <v>30</v>
@@ -13984,7 +14032,7 @@
         <v>1058</v>
       </c>
       <c r="J352" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K352">
         <v>93</v>
@@ -14022,7 +14070,7 @@
         <v>61</v>
       </c>
       <c r="J353" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K353">
         <v>10</v>
@@ -14060,7 +14108,7 @@
         <v>494</v>
       </c>
       <c r="J354" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K354">
         <v>18</v>
@@ -14098,7 +14146,7 @@
         <v>848</v>
       </c>
       <c r="J355" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K355">
         <v>500</v>
@@ -14136,7 +14184,7 @@
         <v>2315</v>
       </c>
       <c r="J356" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K356">
         <v>1664</v>
@@ -14174,7 +14222,7 @@
         <v>2733</v>
       </c>
       <c r="J357" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K357">
         <v>1241</v>
@@ -14212,7 +14260,7 @@
         <v>113</v>
       </c>
       <c r="J358" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K358">
         <v>28</v>
@@ -14250,7 +14298,7 @@
         <v>949</v>
       </c>
       <c r="J359" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K359">
         <v>93</v>
@@ -14288,7 +14336,7 @@
         <v>197</v>
       </c>
       <c r="J360" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K360">
         <v>9</v>
@@ -14326,7 +14374,7 @@
         <v>458</v>
       </c>
       <c r="J361" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K361">
         <v>19</v>
@@ -14364,7 +14412,7 @@
         <v>812</v>
       </c>
       <c r="J362" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K362">
         <v>496</v>
@@ -14402,7 +14450,7 @@
         <v>2152</v>
       </c>
       <c r="J363" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K363">
         <v>1719</v>
@@ -14440,7 +14488,7 @@
         <v>4112</v>
       </c>
       <c r="J364" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K364">
         <v>1323</v>
@@ -14478,7 +14526,7 @@
         <v>132</v>
       </c>
       <c r="J365" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K365">
         <v>29</v>
@@ -14516,7 +14564,7 @@
         <v>901</v>
       </c>
       <c r="J366" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K366">
         <v>88</v>
@@ -14554,7 +14602,7 @@
         <v>243</v>
       </c>
       <c r="J367" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K367">
         <v>10</v>
@@ -14592,7 +14640,7 @@
         <v>730</v>
       </c>
       <c r="J368" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K368">
         <v>21</v>
@@ -14630,7 +14678,7 @@
         <v>903</v>
       </c>
       <c r="J369" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K369">
         <v>576</v>
@@ -14668,7 +14716,7 @@
         <v>2422</v>
       </c>
       <c r="J370" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K370">
         <v>1597</v>
@@ -14706,7 +14754,7 @@
         <v>3729</v>
       </c>
       <c r="J371" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K371">
         <v>1239</v>
@@ -14744,7 +14792,7 @@
         <v>80</v>
       </c>
       <c r="J372" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K372">
         <v>23</v>
@@ -14782,7 +14830,7 @@
         <v>1148</v>
       </c>
       <c r="J373" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K373">
         <v>90</v>
@@ -14820,7 +14868,7 @@
         <v>194</v>
       </c>
       <c r="J374" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K374">
         <v>10</v>
@@ -14858,7 +14906,7 @@
         <v>759</v>
       </c>
       <c r="J375" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K375">
         <v>18</v>
@@ -14896,7 +14944,7 @@
         <v>1052</v>
       </c>
       <c r="J376" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K376">
         <v>616</v>
@@ -14934,7 +14982,7 @@
         <v>3689</v>
       </c>
       <c r="J377" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K377">
         <v>1703</v>
@@ -14972,7 +15020,7 @@
         <v>2587</v>
       </c>
       <c r="J378" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K378">
         <v>1246</v>
@@ -15010,7 +15058,7 @@
         <v>16</v>
       </c>
       <c r="J379" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K379">
         <v>23</v>
@@ -15048,7 +15096,7 @@
         <v>318</v>
       </c>
       <c r="J380" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K380">
         <v>90</v>
@@ -15086,7 +15134,7 @@
         <v>220</v>
       </c>
       <c r="J381" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K381">
         <v>10</v>
@@ -15124,7 +15172,7 @@
         <v>495</v>
       </c>
       <c r="J382" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K382">
         <v>15</v>
@@ -15162,7 +15210,7 @@
         <v>985</v>
       </c>
       <c r="J383" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K383">
         <v>626</v>
@@ -15200,7 +15248,7 @@
         <v>3460</v>
       </c>
       <c r="J384" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K384">
         <v>1803</v>
@@ -15238,7 +15286,7 @@
         <v>3384</v>
       </c>
       <c r="J385" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K385">
         <v>1218</v>
@@ -15276,7 +15324,7 @@
         <v>42</v>
       </c>
       <c r="J386" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K386">
         <v>27</v>
@@ -15314,7 +15362,7 @@
         <v>92</v>
       </c>
       <c r="J387" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K387">
         <v>83</v>
@@ -15352,7 +15400,7 @@
         <v>268</v>
       </c>
       <c r="J388" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K388">
         <v>10</v>
@@ -15390,7 +15438,7 @@
         <v>415</v>
       </c>
       <c r="J389" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K389">
         <v>16</v>
@@ -15428,7 +15476,7 @@
         <v>1338</v>
       </c>
       <c r="J390" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K390">
         <v>603</v>
@@ -15466,7 +15514,7 @@
         <v>6021</v>
       </c>
       <c r="J391" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K391">
         <v>1958</v>
@@ -15504,7 +15552,7 @@
         <v>3032</v>
       </c>
       <c r="J392" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K392">
         <v>1142</v>
@@ -15542,7 +15590,7 @@
         <v>54</v>
       </c>
       <c r="J393" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K393">
         <v>22</v>
@@ -15580,7 +15628,7 @@
         <v>183</v>
       </c>
       <c r="J394" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K394">
         <v>89</v>
@@ -15618,7 +15666,7 @@
         <v>91</v>
       </c>
       <c r="J395" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K395">
         <v>10</v>
@@ -15656,7 +15704,7 @@
         <v>993</v>
       </c>
       <c r="J396" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K396">
         <v>21</v>
@@ -15694,7 +15742,7 @@
         <v>783</v>
       </c>
       <c r="J397" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K397">
         <v>669</v>
@@ -15732,7 +15780,7 @@
         <v>6625</v>
       </c>
       <c r="J398" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K398">
         <v>2472</v>
@@ -15770,7 +15818,7 @@
         <v>2571</v>
       </c>
       <c r="J399" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K399">
         <v>1122</v>
@@ -15808,7 +15856,7 @@
         <v>110</v>
       </c>
       <c r="J400" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K400">
         <v>22</v>
@@ -15846,7 +15894,7 @@
         <v>224</v>
       </c>
       <c r="J401" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K401">
         <v>67</v>
@@ -15884,7 +15932,7 @@
         <v>124</v>
       </c>
       <c r="J402" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K402">
         <v>22</v>
@@ -15922,7 +15970,7 @@
         <v>888</v>
       </c>
       <c r="J403" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K403">
         <v>18</v>
@@ -15960,7 +16008,7 @@
         <v>915</v>
       </c>
       <c r="J404" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K404">
         <v>633</v>
@@ -15998,7 +16046,7 @@
         <v>5378</v>
       </c>
       <c r="J405" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K405">
         <v>2412</v>
@@ -16036,7 +16084,7 @@
         <v>3350</v>
       </c>
       <c r="J406" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K406">
         <v>1231</v>
@@ -16074,7 +16122,7 @@
         <v>80</v>
       </c>
       <c r="J407" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K407">
         <v>19</v>
@@ -16112,7 +16160,7 @@
         <v>136</v>
       </c>
       <c r="J408" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K408">
         <v>67</v>
@@ -16150,7 +16198,7 @@
         <v>281</v>
       </c>
       <c r="J409" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K409">
         <v>21</v>
@@ -16188,7 +16236,7 @@
         <v>1022</v>
       </c>
       <c r="J410" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K410">
         <v>19</v>
@@ -16226,7 +16274,7 @@
         <v>1422</v>
       </c>
       <c r="J411" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K411">
         <v>671</v>
@@ -16264,7 +16312,7 @@
         <v>6487</v>
       </c>
       <c r="J412" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K412">
         <v>2939</v>
@@ -16302,7 +16350,7 @@
         <v>2571</v>
       </c>
       <c r="J413" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K413">
         <v>1224</v>
@@ -16340,7 +16388,7 @@
         <v>47</v>
       </c>
       <c r="J414" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K414">
         <v>20</v>
@@ -16378,7 +16426,7 @@
         <v>235</v>
       </c>
       <c r="J415" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K415">
         <v>44</v>
@@ -16416,7 +16464,7 @@
         <v>93</v>
       </c>
       <c r="J416" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K416">
         <v>13</v>
@@ -16454,7 +16502,7 @@
         <v>1059</v>
       </c>
       <c r="J417" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K417">
         <v>18</v>
@@ -16492,7 +16540,7 @@
         <v>1547</v>
       </c>
       <c r="J418" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K418">
         <v>704</v>
@@ -16530,7 +16578,7 @@
         <v>6383</v>
       </c>
       <c r="J419" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K419">
         <v>3009</v>
@@ -16568,7 +16616,7 @@
         <v>3534</v>
       </c>
       <c r="J420" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K420">
         <v>1211</v>
@@ -16606,7 +16654,7 @@
         <v>150</v>
       </c>
       <c r="J421" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K421">
         <v>19</v>
@@ -16644,7 +16692,7 @@
         <v>117</v>
       </c>
       <c r="J422" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K422">
         <v>44</v>
@@ -16682,7 +16730,7 @@
         <v>228</v>
       </c>
       <c r="J423" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K423">
         <v>12</v>
@@ -16720,7 +16768,7 @@
         <v>991</v>
       </c>
       <c r="J424" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K424">
         <v>29</v>
@@ -16758,7 +16806,7 @@
         <v>1459</v>
       </c>
       <c r="J425" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K425">
         <v>806</v>
@@ -16796,7 +16844,7 @@
         <v>3920</v>
       </c>
       <c r="J426" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K426">
         <v>3370</v>
@@ -16834,7 +16882,7 @@
         <v>5532</v>
       </c>
       <c r="J427" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K427">
         <v>1154</v>
@@ -16872,7 +16920,7 @@
         <v>112</v>
       </c>
       <c r="J428" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K428">
         <v>26</v>
@@ -16910,7 +16958,7 @@
         <v>122</v>
       </c>
       <c r="J429" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K429">
         <v>28</v>
@@ -16948,7 +16996,7 @@
         <v>97</v>
       </c>
       <c r="J430" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K430">
         <v>13</v>
@@ -16986,7 +17034,7 @@
         <v>1098</v>
       </c>
       <c r="J431" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K431">
         <v>29</v>
@@ -17024,7 +17072,7 @@
         <v>1212</v>
       </c>
       <c r="J432" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K432">
         <v>602</v>
@@ -17062,7 +17110,7 @@
         <v>4670</v>
       </c>
       <c r="J433" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K433">
         <v>3882</v>
@@ -17100,7 +17148,7 @@
         <v>5498</v>
       </c>
       <c r="J434" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K434">
         <v>1139</v>
@@ -17138,7 +17186,7 @@
         <v>74</v>
       </c>
       <c r="J435" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K435">
         <v>22</v>
@@ -17176,7 +17224,7 @@
         <v>293</v>
       </c>
       <c r="J436" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K436">
         <v>28</v>
@@ -17214,7 +17262,7 @@
         <v>77</v>
       </c>
       <c r="J437" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K437">
         <v>5</v>
@@ -17252,7 +17300,7 @@
         <v>777</v>
       </c>
       <c r="J438" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="K438">
         <v>28</v>
@@ -17290,7 +17338,7 @@
         <v>1270</v>
       </c>
       <c r="J439" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K439">
         <v>641</v>
@@ -17328,7 +17376,7 @@
         <v>2533</v>
       </c>
       <c r="J440" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K440">
         <v>4269</v>
@@ -17366,13 +17414,4269 @@
         <v>4215</v>
       </c>
       <c r="J441" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K441">
         <v>1237</v>
       </c>
       <c r="L441">
         <v>4215</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442">
+        <v>2935</v>
+      </c>
+      <c r="C442">
+        <v>86</v>
+      </c>
+      <c r="D442">
+        <v>2935</v>
+      </c>
+      <c r="E442" t="s">
+        <v>72</v>
+      </c>
+      <c r="F442">
+        <v>0</v>
+      </c>
+      <c r="G442">
+        <v>1</v>
+      </c>
+      <c r="H442">
+        <v>0</v>
+      </c>
+      <c r="I442">
+        <v>81</v>
+      </c>
+      <c r="J442" t="s">
+        <v>94</v>
+      </c>
+      <c r="K442">
+        <v>21</v>
+      </c>
+      <c r="L442">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443">
+        <v>17514</v>
+      </c>
+      <c r="C443">
+        <v>2061</v>
+      </c>
+      <c r="D443">
+        <v>15323</v>
+      </c>
+      <c r="E443" t="s">
+        <v>72</v>
+      </c>
+      <c r="F443">
+        <v>1761</v>
+      </c>
+      <c r="G443">
+        <v>27</v>
+      </c>
+      <c r="H443">
+        <v>1761</v>
+      </c>
+      <c r="I443">
+        <v>277</v>
+      </c>
+      <c r="J443" t="s">
+        <v>93</v>
+      </c>
+      <c r="K443">
+        <v>31</v>
+      </c>
+      <c r="L443">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444">
+        <v>6213</v>
+      </c>
+      <c r="C444">
+        <v>457</v>
+      </c>
+      <c r="D444">
+        <v>5619</v>
+      </c>
+      <c r="E444" t="s">
+        <v>72</v>
+      </c>
+      <c r="F444">
+        <v>121</v>
+      </c>
+      <c r="G444">
+        <v>4</v>
+      </c>
+      <c r="H444">
+        <v>121</v>
+      </c>
+      <c r="I444">
+        <v>153</v>
+      </c>
+      <c r="J444" t="s">
+        <v>95</v>
+      </c>
+      <c r="K444">
+        <v>12</v>
+      </c>
+      <c r="L444">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445">
+        <v>20201</v>
+      </c>
+      <c r="C445">
+        <v>716</v>
+      </c>
+      <c r="D445">
+        <v>20201</v>
+      </c>
+      <c r="E445" t="s">
+        <v>72</v>
+      </c>
+      <c r="F445">
+        <v>602</v>
+      </c>
+      <c r="G445">
+        <v>6</v>
+      </c>
+      <c r="H445">
+        <v>602</v>
+      </c>
+      <c r="I445">
+        <v>669</v>
+      </c>
+      <c r="J445" t="s">
+        <v>88</v>
+      </c>
+      <c r="K445">
+        <v>36</v>
+      </c>
+      <c r="L445">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446">
+        <v>30597</v>
+      </c>
+      <c r="C446">
+        <v>4875</v>
+      </c>
+      <c r="D446">
+        <v>31606</v>
+      </c>
+      <c r="E446" t="s">
+        <v>72</v>
+      </c>
+      <c r="F446">
+        <v>2713</v>
+      </c>
+      <c r="G446">
+        <v>257</v>
+      </c>
+      <c r="H446">
+        <v>2713</v>
+      </c>
+      <c r="I446">
+        <v>1134</v>
+      </c>
+      <c r="J446" t="s">
+        <v>91</v>
+      </c>
+      <c r="K446">
+        <v>649</v>
+      </c>
+      <c r="L446">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447">
+        <v>107603</v>
+      </c>
+      <c r="C447">
+        <v>11869</v>
+      </c>
+      <c r="D447">
+        <v>135114</v>
+      </c>
+      <c r="E447" t="s">
+        <v>72</v>
+      </c>
+      <c r="F447">
+        <v>2784</v>
+      </c>
+      <c r="G447">
+        <v>211</v>
+      </c>
+      <c r="H447">
+        <v>2784</v>
+      </c>
+      <c r="I447">
+        <v>3699</v>
+      </c>
+      <c r="J447" t="s">
+        <v>89</v>
+      </c>
+      <c r="K447">
+        <v>4422</v>
+      </c>
+      <c r="L447">
+        <v>4568</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448">
+        <v>95053</v>
+      </c>
+      <c r="C448">
+        <v>12017</v>
+      </c>
+      <c r="D448">
+        <v>95053</v>
+      </c>
+      <c r="E448" t="s">
+        <v>72</v>
+      </c>
+      <c r="F448">
+        <v>8178</v>
+      </c>
+      <c r="G448">
+        <v>200</v>
+      </c>
+      <c r="H448">
+        <v>8178</v>
+      </c>
+      <c r="I448">
+        <v>3730</v>
+      </c>
+      <c r="J448" t="s">
+        <v>90</v>
+      </c>
+      <c r="K448">
+        <v>1490</v>
+      </c>
+      <c r="L448">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449">
+        <v>3037</v>
+      </c>
+      <c r="C449">
+        <v>88</v>
+      </c>
+      <c r="D449">
+        <v>3037</v>
+      </c>
+      <c r="E449" t="s">
+        <v>73</v>
+      </c>
+      <c r="F449">
+        <v>0</v>
+      </c>
+      <c r="G449">
+        <v>1</v>
+      </c>
+      <c r="H449">
+        <v>0</v>
+      </c>
+      <c r="I449">
+        <v>102</v>
+      </c>
+      <c r="J449" t="s">
+        <v>94</v>
+      </c>
+      <c r="K449">
+        <v>19</v>
+      </c>
+      <c r="L449">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450">
+        <v>17781</v>
+      </c>
+      <c r="C450">
+        <v>2158</v>
+      </c>
+      <c r="D450">
+        <v>15751</v>
+      </c>
+      <c r="E450" t="s">
+        <v>73</v>
+      </c>
+      <c r="F450">
+        <v>1844</v>
+      </c>
+      <c r="G450">
+        <v>27</v>
+      </c>
+      <c r="H450">
+        <v>1844</v>
+      </c>
+      <c r="I450">
+        <v>267</v>
+      </c>
+      <c r="J450" t="s">
+        <v>93</v>
+      </c>
+      <c r="K450">
+        <v>31</v>
+      </c>
+      <c r="L450">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451">
+        <v>6224</v>
+      </c>
+      <c r="C451">
+        <v>475</v>
+      </c>
+      <c r="D451">
+        <v>5748</v>
+      </c>
+      <c r="E451" t="s">
+        <v>73</v>
+      </c>
+      <c r="F451">
+        <v>127</v>
+      </c>
+      <c r="G451">
+        <v>4</v>
+      </c>
+      <c r="H451">
+        <v>127</v>
+      </c>
+      <c r="I451">
+        <v>11</v>
+      </c>
+      <c r="J451" t="s">
+        <v>95</v>
+      </c>
+      <c r="K451">
+        <v>13</v>
+      </c>
+      <c r="L451">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452">
+        <v>21257</v>
+      </c>
+      <c r="C452">
+        <v>759</v>
+      </c>
+      <c r="D452">
+        <v>21257</v>
+      </c>
+      <c r="E452" t="s">
+        <v>73</v>
+      </c>
+      <c r="F452">
+        <v>632</v>
+      </c>
+      <c r="G452">
+        <v>6</v>
+      </c>
+      <c r="H452">
+        <v>632</v>
+      </c>
+      <c r="I452">
+        <v>1056</v>
+      </c>
+      <c r="J452" t="s">
+        <v>88</v>
+      </c>
+      <c r="K452">
+        <v>29</v>
+      </c>
+      <c r="L452">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453">
+        <v>31568</v>
+      </c>
+      <c r="C453">
+        <v>5021</v>
+      </c>
+      <c r="D453">
+        <v>32577</v>
+      </c>
+      <c r="E453" t="s">
+        <v>73</v>
+      </c>
+      <c r="F453">
+        <v>2860</v>
+      </c>
+      <c r="G453">
+        <v>267</v>
+      </c>
+      <c r="H453">
+        <v>2860</v>
+      </c>
+      <c r="I453">
+        <v>971</v>
+      </c>
+      <c r="J453" t="s">
+        <v>91</v>
+      </c>
+      <c r="K453">
+        <v>589</v>
+      </c>
+      <c r="L453">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454">
+        <v>114762</v>
+      </c>
+      <c r="C454">
+        <v>13225</v>
+      </c>
+      <c r="D454">
+        <v>140212</v>
+      </c>
+      <c r="E454" t="s">
+        <v>73</v>
+      </c>
+      <c r="F454">
+        <v>2780</v>
+      </c>
+      <c r="G454">
+        <v>214</v>
+      </c>
+      <c r="H454">
+        <v>2780</v>
+      </c>
+      <c r="I454">
+        <v>7159</v>
+      </c>
+      <c r="J454" t="s">
+        <v>89</v>
+      </c>
+      <c r="K454">
+        <v>5700</v>
+      </c>
+      <c r="L454">
+        <v>5098</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455">
+        <v>99117</v>
+      </c>
+      <c r="C455">
+        <v>12610</v>
+      </c>
+      <c r="D455">
+        <v>99117</v>
+      </c>
+      <c r="E455" t="s">
+        <v>73</v>
+      </c>
+      <c r="F455">
+        <v>8668</v>
+      </c>
+      <c r="G455">
+        <v>218</v>
+      </c>
+      <c r="H455">
+        <v>8668</v>
+      </c>
+      <c r="I455">
+        <v>4064</v>
+      </c>
+      <c r="J455" t="s">
+        <v>90</v>
+      </c>
+      <c r="K455">
+        <v>1495</v>
+      </c>
+      <c r="L455">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456">
+        <v>3245</v>
+      </c>
+      <c r="C456">
+        <v>91</v>
+      </c>
+      <c r="D456">
+        <v>3245</v>
+      </c>
+      <c r="E456" t="s">
+        <v>74</v>
+      </c>
+      <c r="F456">
+        <v>69</v>
+      </c>
+      <c r="G456">
+        <v>1</v>
+      </c>
+      <c r="H456">
+        <v>0</v>
+      </c>
+      <c r="I456">
+        <v>208</v>
+      </c>
+      <c r="J456" t="s">
+        <v>94</v>
+      </c>
+      <c r="K456">
+        <v>21</v>
+      </c>
+      <c r="L456">
+        <v>-166</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457">
+        <v>17910</v>
+      </c>
+      <c r="C457">
+        <v>2239</v>
+      </c>
+      <c r="D457">
+        <v>16062</v>
+      </c>
+      <c r="E457" t="s">
+        <v>74</v>
+      </c>
+      <c r="F457">
+        <v>326</v>
+      </c>
+      <c r="G457">
+        <v>27</v>
+      </c>
+      <c r="H457">
+        <v>1855</v>
+      </c>
+      <c r="I457">
+        <v>129</v>
+      </c>
+      <c r="J457" t="s">
+        <v>93</v>
+      </c>
+      <c r="K457">
+        <v>31</v>
+      </c>
+      <c r="L457">
+        <v>-539</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458">
+        <v>6396</v>
+      </c>
+      <c r="C458">
+        <v>482</v>
+      </c>
+      <c r="D458">
+        <v>5884</v>
+      </c>
+      <c r="E458" t="s">
+        <v>74</v>
+      </c>
+      <c r="F458">
+        <v>337</v>
+      </c>
+      <c r="G458">
+        <v>4</v>
+      </c>
+      <c r="H458">
+        <v>129</v>
+      </c>
+      <c r="I458">
+        <v>172</v>
+      </c>
+      <c r="J458" t="s">
+        <v>95</v>
+      </c>
+      <c r="K458">
+        <v>12</v>
+      </c>
+      <c r="L458">
+        <v>-143</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459">
+        <v>22287</v>
+      </c>
+      <c r="C459">
+        <v>822</v>
+      </c>
+      <c r="D459">
+        <v>22287</v>
+      </c>
+      <c r="E459" t="s">
+        <v>74</v>
+      </c>
+      <c r="F459">
+        <v>100</v>
+      </c>
+      <c r="G459">
+        <v>6</v>
+      </c>
+      <c r="H459">
+        <v>690</v>
+      </c>
+      <c r="I459">
+        <v>1030</v>
+      </c>
+      <c r="J459" t="s">
+        <v>88</v>
+      </c>
+      <c r="K459">
+        <v>26</v>
+      </c>
+      <c r="L459">
+        <v>-1122</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460">
+        <v>33253</v>
+      </c>
+      <c r="C460">
+        <v>5252</v>
+      </c>
+      <c r="D460">
+        <v>34352</v>
+      </c>
+      <c r="E460" t="s">
+        <v>74</v>
+      </c>
+      <c r="F460">
+        <v>1392</v>
+      </c>
+      <c r="G460">
+        <v>275</v>
+      </c>
+      <c r="H460">
+        <v>3013</v>
+      </c>
+      <c r="I460">
+        <v>1685</v>
+      </c>
+      <c r="J460" t="s">
+        <v>91</v>
+      </c>
+      <c r="K460">
+        <v>572</v>
+      </c>
+      <c r="L460">
+        <v>-1553</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461">
+        <v>121329</v>
+      </c>
+      <c r="C461">
+        <v>13561</v>
+      </c>
+      <c r="D461">
+        <v>145577</v>
+      </c>
+      <c r="E461" t="s">
+        <v>74</v>
+      </c>
+      <c r="F461">
+        <v>4636</v>
+      </c>
+      <c r="G461">
+        <v>223</v>
+      </c>
+      <c r="H461">
+        <v>2790</v>
+      </c>
+      <c r="I461">
+        <v>6567</v>
+      </c>
+      <c r="J461" t="s">
+        <v>89</v>
+      </c>
+      <c r="K461">
+        <v>5912</v>
+      </c>
+      <c r="L461">
+        <v>-5670</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462">
+        <v>103343</v>
+      </c>
+      <c r="C462">
+        <v>13341</v>
+      </c>
+      <c r="D462">
+        <v>103343</v>
+      </c>
+      <c r="E462" t="s">
+        <v>74</v>
+      </c>
+      <c r="F462">
+        <v>2835</v>
+      </c>
+      <c r="G462">
+        <v>234</v>
+      </c>
+      <c r="H462">
+        <v>8840</v>
+      </c>
+      <c r="I462">
+        <v>4226</v>
+      </c>
+      <c r="J462" t="s">
+        <v>90</v>
+      </c>
+      <c r="K462">
+        <v>1432</v>
+      </c>
+      <c r="L462">
+        <v>-4487</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463">
+        <v>3411</v>
+      </c>
+      <c r="C463">
+        <v>105</v>
+      </c>
+      <c r="D463">
+        <v>3411</v>
+      </c>
+      <c r="E463" t="s">
+        <v>75</v>
+      </c>
+      <c r="F463">
+        <v>76</v>
+      </c>
+      <c r="G463">
+        <v>1</v>
+      </c>
+      <c r="H463">
+        <v>0</v>
+      </c>
+      <c r="I463">
+        <v>166</v>
+      </c>
+      <c r="J463" t="s">
+        <v>94</v>
+      </c>
+      <c r="K463">
+        <v>28</v>
+      </c>
+      <c r="L463">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464">
+        <v>18255</v>
+      </c>
+      <c r="C464">
+        <v>2310</v>
+      </c>
+      <c r="D464">
+        <v>16601</v>
+      </c>
+      <c r="E464" t="s">
+        <v>75</v>
+      </c>
+      <c r="F464">
+        <v>342</v>
+      </c>
+      <c r="G464">
+        <v>30</v>
+      </c>
+      <c r="H464">
+        <v>1907</v>
+      </c>
+      <c r="I464">
+        <v>345</v>
+      </c>
+      <c r="J464" t="s">
+        <v>93</v>
+      </c>
+      <c r="K464">
+        <v>31</v>
+      </c>
+      <c r="L464">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465">
+        <v>6573</v>
+      </c>
+      <c r="C465">
+        <v>501</v>
+      </c>
+      <c r="D465">
+        <v>6027</v>
+      </c>
+      <c r="E465" t="s">
+        <v>75</v>
+      </c>
+      <c r="F465">
+        <v>339</v>
+      </c>
+      <c r="G465">
+        <v>4</v>
+      </c>
+      <c r="H465">
+        <v>141</v>
+      </c>
+      <c r="I465">
+        <v>177</v>
+      </c>
+      <c r="J465" t="s">
+        <v>95</v>
+      </c>
+      <c r="K465">
+        <v>17</v>
+      </c>
+      <c r="L465">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466">
+        <v>23409</v>
+      </c>
+      <c r="C466">
+        <v>866</v>
+      </c>
+      <c r="D466">
+        <v>23409</v>
+      </c>
+      <c r="E466" t="s">
+        <v>75</v>
+      </c>
+      <c r="F466">
+        <v>100</v>
+      </c>
+      <c r="G466">
+        <v>7</v>
+      </c>
+      <c r="H466">
+        <v>734</v>
+      </c>
+      <c r="I466">
+        <v>1122</v>
+      </c>
+      <c r="J466" t="s">
+        <v>88</v>
+      </c>
+      <c r="K466">
+        <v>25</v>
+      </c>
+      <c r="L466">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467">
+        <v>34806</v>
+      </c>
+      <c r="C467">
+        <v>5423</v>
+      </c>
+      <c r="D467">
+        <v>35905</v>
+      </c>
+      <c r="E467" t="s">
+        <v>75</v>
+      </c>
+      <c r="F467">
+        <v>1505</v>
+      </c>
+      <c r="G467">
+        <v>284</v>
+      </c>
+      <c r="H467">
+        <v>3087</v>
+      </c>
+      <c r="I467">
+        <v>1553</v>
+      </c>
+      <c r="J467" t="s">
+        <v>91</v>
+      </c>
+      <c r="K467">
+        <v>547</v>
+      </c>
+      <c r="L467">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468">
+        <v>126538</v>
+      </c>
+      <c r="C468">
+        <v>13914</v>
+      </c>
+      <c r="D468">
+        <v>151247</v>
+      </c>
+      <c r="E468" t="s">
+        <v>75</v>
+      </c>
+      <c r="F468">
+        <v>4720</v>
+      </c>
+      <c r="G468">
+        <v>234</v>
+      </c>
+      <c r="H468">
+        <v>2780</v>
+      </c>
+      <c r="I468">
+        <v>5209</v>
+      </c>
+      <c r="J468" t="s">
+        <v>89</v>
+      </c>
+      <c r="K468">
+        <v>6180</v>
+      </c>
+      <c r="L468">
+        <v>11035</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469">
+        <v>107830</v>
+      </c>
+      <c r="C469">
+        <v>14099</v>
+      </c>
+      <c r="D469">
+        <v>107830</v>
+      </c>
+      <c r="E469" t="s">
+        <v>75</v>
+      </c>
+      <c r="F469">
+        <v>3073</v>
+      </c>
+      <c r="G469">
+        <v>243</v>
+      </c>
+      <c r="H469">
+        <v>9307</v>
+      </c>
+      <c r="I469">
+        <v>4487</v>
+      </c>
+      <c r="J469" t="s">
+        <v>90</v>
+      </c>
+      <c r="K469">
+        <v>1476</v>
+      </c>
+      <c r="L469">
+        <v>8713</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470">
+        <v>3572</v>
+      </c>
+      <c r="C470">
+        <v>108</v>
+      </c>
+      <c r="D470">
+        <v>3572</v>
+      </c>
+      <c r="E470" t="s">
+        <v>76</v>
+      </c>
+      <c r="F470">
+        <v>76</v>
+      </c>
+      <c r="G470">
+        <v>1</v>
+      </c>
+      <c r="H470">
+        <v>0</v>
+      </c>
+      <c r="I470">
+        <v>161</v>
+      </c>
+      <c r="J470" t="s">
+        <v>94</v>
+      </c>
+      <c r="K470">
+        <v>31</v>
+      </c>
+      <c r="L470">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471">
+        <v>18609</v>
+      </c>
+      <c r="C471">
+        <v>2457</v>
+      </c>
+      <c r="D471">
+        <v>17078</v>
+      </c>
+      <c r="E471" t="s">
+        <v>76</v>
+      </c>
+      <c r="F471">
+        <v>383</v>
+      </c>
+      <c r="G471">
+        <v>31</v>
+      </c>
+      <c r="H471">
+        <v>2011</v>
+      </c>
+      <c r="I471">
+        <v>354</v>
+      </c>
+      <c r="J471" t="s">
+        <v>93</v>
+      </c>
+      <c r="K471">
+        <v>32</v>
+      </c>
+      <c r="L471">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472">
+        <v>6660</v>
+      </c>
+      <c r="C472">
+        <v>518</v>
+      </c>
+      <c r="D472">
+        <v>6173</v>
+      </c>
+      <c r="E472" t="s">
+        <v>76</v>
+      </c>
+      <c r="F472">
+        <v>345</v>
+      </c>
+      <c r="G472">
+        <v>4</v>
+      </c>
+      <c r="H472">
+        <v>145</v>
+      </c>
+      <c r="I472">
+        <v>87</v>
+      </c>
+      <c r="J472" t="s">
+        <v>95</v>
+      </c>
+      <c r="K472">
+        <v>24</v>
+      </c>
+      <c r="L472">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473">
+        <v>24367</v>
+      </c>
+      <c r="C473">
+        <v>921</v>
+      </c>
+      <c r="D473">
+        <v>24367</v>
+      </c>
+      <c r="E473" t="s">
+        <v>76</v>
+      </c>
+      <c r="F473">
+        <v>100</v>
+      </c>
+      <c r="G473">
+        <v>7</v>
+      </c>
+      <c r="H473">
+        <v>784</v>
+      </c>
+      <c r="I473">
+        <v>958</v>
+      </c>
+      <c r="J473" t="s">
+        <v>88</v>
+      </c>
+      <c r="K473">
+        <v>30</v>
+      </c>
+      <c r="L473">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474">
+        <v>36443</v>
+      </c>
+      <c r="C474">
+        <v>5678</v>
+      </c>
+      <c r="D474">
+        <v>37452</v>
+      </c>
+      <c r="E474" t="s">
+        <v>76</v>
+      </c>
+      <c r="F474">
+        <v>1613</v>
+      </c>
+      <c r="G474">
+        <v>291</v>
+      </c>
+      <c r="H474">
+        <v>3252</v>
+      </c>
+      <c r="I474">
+        <v>1637</v>
+      </c>
+      <c r="J474" t="s">
+        <v>91</v>
+      </c>
+      <c r="K474">
+        <v>522</v>
+      </c>
+      <c r="L474">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475">
+        <v>132593</v>
+      </c>
+      <c r="C475">
+        <v>14201</v>
+      </c>
+      <c r="D475">
+        <v>157226</v>
+      </c>
+      <c r="E475" t="s">
+        <v>76</v>
+      </c>
+      <c r="F475">
+        <v>4757</v>
+      </c>
+      <c r="G475">
+        <v>245</v>
+      </c>
+      <c r="H475">
+        <v>2781</v>
+      </c>
+      <c r="I475">
+        <v>6055</v>
+      </c>
+      <c r="J475" t="s">
+        <v>89</v>
+      </c>
+      <c r="K475">
+        <v>6418</v>
+      </c>
+      <c r="L475">
+        <v>11649</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476">
+        <v>113396</v>
+      </c>
+      <c r="C476">
+        <v>14916</v>
+      </c>
+      <c r="D476">
+        <v>113396</v>
+      </c>
+      <c r="E476" t="s">
+        <v>76</v>
+      </c>
+      <c r="F476">
+        <v>3606</v>
+      </c>
+      <c r="G476">
+        <v>255</v>
+      </c>
+      <c r="H476">
+        <v>9651</v>
+      </c>
+      <c r="I476">
+        <v>5566</v>
+      </c>
+      <c r="J476" t="s">
+        <v>90</v>
+      </c>
+      <c r="K476">
+        <v>1404</v>
+      </c>
+      <c r="L476">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477">
+        <v>3758</v>
+      </c>
+      <c r="C477">
+        <v>112</v>
+      </c>
+      <c r="D477">
+        <v>3758</v>
+      </c>
+      <c r="E477" t="s">
+        <v>77</v>
+      </c>
+      <c r="F477">
+        <v>77</v>
+      </c>
+      <c r="G477">
+        <v>1</v>
+      </c>
+      <c r="H477">
+        <v>0</v>
+      </c>
+      <c r="I477">
+        <v>186</v>
+      </c>
+      <c r="J477" t="s">
+        <v>94</v>
+      </c>
+      <c r="K477">
+        <v>34</v>
+      </c>
+      <c r="L477">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478">
+        <v>18627</v>
+      </c>
+      <c r="C478">
+        <v>2544</v>
+      </c>
+      <c r="D478">
+        <v>17663</v>
+      </c>
+      <c r="E478" t="s">
+        <v>77</v>
+      </c>
+      <c r="F478">
+        <v>417</v>
+      </c>
+      <c r="G478">
+        <v>36</v>
+      </c>
+      <c r="H478">
+        <v>2059</v>
+      </c>
+      <c r="I478">
+        <v>18</v>
+      </c>
+      <c r="J478" t="s">
+        <v>93</v>
+      </c>
+      <c r="K478">
+        <v>32</v>
+      </c>
+      <c r="L478">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479">
+        <v>6808</v>
+      </c>
+      <c r="C479">
+        <v>527</v>
+      </c>
+      <c r="D479">
+        <v>6356</v>
+      </c>
+      <c r="E479" t="s">
+        <v>77</v>
+      </c>
+      <c r="F479">
+        <v>348</v>
+      </c>
+      <c r="G479">
+        <v>4</v>
+      </c>
+      <c r="H479">
+        <v>154</v>
+      </c>
+      <c r="I479">
+        <v>148</v>
+      </c>
+      <c r="J479" t="s">
+        <v>95</v>
+      </c>
+      <c r="K479">
+        <v>21</v>
+      </c>
+      <c r="L479">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480">
+        <v>25385</v>
+      </c>
+      <c r="C480">
+        <v>947</v>
+      </c>
+      <c r="D480">
+        <v>25385</v>
+      </c>
+      <c r="E480" t="s">
+        <v>77</v>
+      </c>
+      <c r="F480">
+        <v>113</v>
+      </c>
+      <c r="G480">
+        <v>7</v>
+      </c>
+      <c r="H480">
+        <v>805</v>
+      </c>
+      <c r="I480">
+        <v>1018</v>
+      </c>
+      <c r="J480" t="s">
+        <v>88</v>
+      </c>
+      <c r="K480">
+        <v>22</v>
+      </c>
+      <c r="L480">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481">
+        <v>37913</v>
+      </c>
+      <c r="C481">
+        <v>5847</v>
+      </c>
+      <c r="D481">
+        <v>38992</v>
+      </c>
+      <c r="E481" t="s">
+        <v>77</v>
+      </c>
+      <c r="F481">
+        <v>1699</v>
+      </c>
+      <c r="G481">
+        <v>305</v>
+      </c>
+      <c r="H481">
+        <v>3469</v>
+      </c>
+      <c r="I481">
+        <v>1470</v>
+      </c>
+      <c r="J481" t="s">
+        <v>91</v>
+      </c>
+      <c r="K481">
+        <v>374</v>
+      </c>
+      <c r="L481">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482">
+        <v>138511</v>
+      </c>
+      <c r="C482">
+        <v>14584</v>
+      </c>
+      <c r="D482">
+        <v>163466</v>
+      </c>
+      <c r="E482" t="s">
+        <v>77</v>
+      </c>
+      <c r="F482">
+        <v>4883</v>
+      </c>
+      <c r="G482">
+        <v>252</v>
+      </c>
+      <c r="H482">
+        <v>2832</v>
+      </c>
+      <c r="I482">
+        <v>5918</v>
+      </c>
+      <c r="J482" t="s">
+        <v>89</v>
+      </c>
+      <c r="K482">
+        <v>6617</v>
+      </c>
+      <c r="L482">
+        <v>12219</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483">
+        <v>117860</v>
+      </c>
+      <c r="C483">
+        <v>15590</v>
+      </c>
+      <c r="D483">
+        <v>117860</v>
+      </c>
+      <c r="E483" t="s">
+        <v>77</v>
+      </c>
+      <c r="F483">
+        <v>3804</v>
+      </c>
+      <c r="G483">
+        <v>268</v>
+      </c>
+      <c r="H483">
+        <v>10253</v>
+      </c>
+      <c r="I483">
+        <v>4464</v>
+      </c>
+      <c r="J483" t="s">
+        <v>90</v>
+      </c>
+      <c r="K483">
+        <v>1265</v>
+      </c>
+      <c r="L483">
+        <v>10030</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484">
+        <v>3947</v>
+      </c>
+      <c r="C484">
+        <v>112</v>
+      </c>
+      <c r="D484">
+        <v>3947</v>
+      </c>
+      <c r="E484" t="s">
+        <v>78</v>
+      </c>
+      <c r="F484">
+        <v>77</v>
+      </c>
+      <c r="G484">
+        <v>1</v>
+      </c>
+      <c r="H484">
+        <v>0</v>
+      </c>
+      <c r="I484">
+        <v>189</v>
+      </c>
+      <c r="J484" t="s">
+        <v>94</v>
+      </c>
+      <c r="K484">
+        <v>34</v>
+      </c>
+      <c r="L484">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485">
+        <v>18801</v>
+      </c>
+      <c r="C485">
+        <v>2692</v>
+      </c>
+      <c r="D485">
+        <v>18021</v>
+      </c>
+      <c r="E485" t="s">
+        <v>78</v>
+      </c>
+      <c r="F485">
+        <v>454</v>
+      </c>
+      <c r="G485">
+        <v>36</v>
+      </c>
+      <c r="H485">
+        <v>2176</v>
+      </c>
+      <c r="I485">
+        <v>174</v>
+      </c>
+      <c r="J485" t="s">
+        <v>93</v>
+      </c>
+      <c r="K485">
+        <v>26</v>
+      </c>
+      <c r="L485">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486">
+        <v>6929</v>
+      </c>
+      <c r="C486">
+        <v>540</v>
+      </c>
+      <c r="D486">
+        <v>6517</v>
+      </c>
+      <c r="E486" t="s">
+        <v>78</v>
+      </c>
+      <c r="F486">
+        <v>368</v>
+      </c>
+      <c r="G486">
+        <v>4</v>
+      </c>
+      <c r="H486">
+        <v>142</v>
+      </c>
+      <c r="I486">
+        <v>121</v>
+      </c>
+      <c r="J486" t="s">
+        <v>95</v>
+      </c>
+      <c r="K486">
+        <v>26</v>
+      </c>
+      <c r="L486">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487">
+        <v>26606</v>
+      </c>
+      <c r="C487">
+        <v>997</v>
+      </c>
+      <c r="D487">
+        <v>26606</v>
+      </c>
+      <c r="E487" t="s">
+        <v>78</v>
+      </c>
+      <c r="F487">
+        <v>113</v>
+      </c>
+      <c r="G487">
+        <v>7</v>
+      </c>
+      <c r="H487">
+        <v>846</v>
+      </c>
+      <c r="I487">
+        <v>1221</v>
+      </c>
+      <c r="J487" t="s">
+        <v>88</v>
+      </c>
+      <c r="K487">
+        <v>31</v>
+      </c>
+      <c r="L487">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488">
+        <v>39321</v>
+      </c>
+      <c r="C488">
+        <v>6061</v>
+      </c>
+      <c r="D488">
+        <v>40410</v>
+      </c>
+      <c r="E488" t="s">
+        <v>78</v>
+      </c>
+      <c r="F488">
+        <v>1783</v>
+      </c>
+      <c r="G488">
+        <v>318</v>
+      </c>
+      <c r="H488">
+        <v>3440</v>
+      </c>
+      <c r="I488">
+        <v>1408</v>
+      </c>
+      <c r="J488" t="s">
+        <v>91</v>
+      </c>
+      <c r="K488">
+        <v>520</v>
+      </c>
+      <c r="L488">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489">
+        <v>142864</v>
+      </c>
+      <c r="C489">
+        <v>15346</v>
+      </c>
+      <c r="D489">
+        <v>168940</v>
+      </c>
+      <c r="E489" t="s">
+        <v>78</v>
+      </c>
+      <c r="F489">
+        <v>4918</v>
+      </c>
+      <c r="G489">
+        <v>260</v>
+      </c>
+      <c r="H489">
+        <v>2780</v>
+      </c>
+      <c r="I489">
+        <v>4353</v>
+      </c>
+      <c r="J489" t="s">
+        <v>89</v>
+      </c>
+      <c r="K489">
+        <v>7388</v>
+      </c>
+      <c r="L489">
+        <v>11714</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490">
+        <v>122894</v>
+      </c>
+      <c r="C490">
+        <v>16337</v>
+      </c>
+      <c r="D490">
+        <v>122894</v>
+      </c>
+      <c r="E490" t="s">
+        <v>78</v>
+      </c>
+      <c r="F490">
+        <v>4209</v>
+      </c>
+      <c r="G490">
+        <v>277</v>
+      </c>
+      <c r="H490">
+        <v>10445</v>
+      </c>
+      <c r="I490">
+        <v>5034</v>
+      </c>
+      <c r="J490" t="s">
+        <v>90</v>
+      </c>
+      <c r="K490">
+        <v>1406</v>
+      </c>
+      <c r="L490">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491">
+        <v>4090</v>
+      </c>
+      <c r="C491">
+        <v>115</v>
+      </c>
+      <c r="D491">
+        <v>4090</v>
+      </c>
+      <c r="E491" t="s">
+        <v>79</v>
+      </c>
+      <c r="F491">
+        <v>77</v>
+      </c>
+      <c r="G491">
+        <v>1</v>
+      </c>
+      <c r="H491">
+        <v>0</v>
+      </c>
+      <c r="I491">
+        <v>143</v>
+      </c>
+      <c r="J491" t="s">
+        <v>94</v>
+      </c>
+      <c r="K491">
+        <v>37</v>
+      </c>
+      <c r="L491">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492">
+        <v>19029</v>
+      </c>
+      <c r="C492">
+        <v>2820</v>
+      </c>
+      <c r="D492">
+        <v>18438</v>
+      </c>
+      <c r="E492" t="s">
+        <v>79</v>
+      </c>
+      <c r="F492">
+        <v>524</v>
+      </c>
+      <c r="G492">
+        <v>38</v>
+      </c>
+      <c r="H492">
+        <v>2224</v>
+      </c>
+      <c r="I492">
+        <v>228</v>
+      </c>
+      <c r="J492" t="s">
+        <v>93</v>
+      </c>
+      <c r="K492">
+        <v>34</v>
+      </c>
+      <c r="L492">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493">
+        <v>6985</v>
+      </c>
+      <c r="C493">
+        <v>550</v>
+      </c>
+      <c r="D493">
+        <v>6636</v>
+      </c>
+      <c r="E493" t="s">
+        <v>79</v>
+      </c>
+      <c r="F493">
+        <v>368</v>
+      </c>
+      <c r="G493">
+        <v>4</v>
+      </c>
+      <c r="H493">
+        <v>156</v>
+      </c>
+      <c r="I493">
+        <v>56</v>
+      </c>
+      <c r="J493" t="s">
+        <v>95</v>
+      </c>
+      <c r="K493">
+        <v>22</v>
+      </c>
+      <c r="L493">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12">
+      <c r="A494" s="1">
+        <v>492</v>
+      </c>
+      <c r="B494">
+        <v>27425</v>
+      </c>
+      <c r="C494">
+        <v>1034</v>
+      </c>
+      <c r="D494">
+        <v>27425</v>
+      </c>
+      <c r="E494" t="s">
+        <v>79</v>
+      </c>
+      <c r="F494">
+        <v>113</v>
+      </c>
+      <c r="G494">
+        <v>9</v>
+      </c>
+      <c r="H494">
+        <v>890</v>
+      </c>
+      <c r="I494">
+        <v>819</v>
+      </c>
+      <c r="J494" t="s">
+        <v>88</v>
+      </c>
+      <c r="K494">
+        <v>22</v>
+      </c>
+      <c r="L494">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12">
+      <c r="A495" s="1">
+        <v>493</v>
+      </c>
+      <c r="B495">
+        <v>40721</v>
+      </c>
+      <c r="C495">
+        <v>6230</v>
+      </c>
+      <c r="D495">
+        <v>41825</v>
+      </c>
+      <c r="E495" t="s">
+        <v>79</v>
+      </c>
+      <c r="F495">
+        <v>1944</v>
+      </c>
+      <c r="G495">
+        <v>334</v>
+      </c>
+      <c r="H495">
+        <v>3474</v>
+      </c>
+      <c r="I495">
+        <v>1400</v>
+      </c>
+      <c r="J495" t="s">
+        <v>91</v>
+      </c>
+      <c r="K495">
+        <v>478</v>
+      </c>
+      <c r="L495">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12">
+      <c r="A496" s="1">
+        <v>494</v>
+      </c>
+      <c r="B496">
+        <v>148621</v>
+      </c>
+      <c r="C496">
+        <v>15976</v>
+      </c>
+      <c r="D496">
+        <v>174305</v>
+      </c>
+      <c r="E496" t="s">
+        <v>79</v>
+      </c>
+      <c r="F496">
+        <v>4974</v>
+      </c>
+      <c r="G496">
+        <v>273</v>
+      </c>
+      <c r="H496">
+        <v>2780</v>
+      </c>
+      <c r="I496">
+        <v>5757</v>
+      </c>
+      <c r="J496" t="s">
+        <v>89</v>
+      </c>
+      <c r="K496">
+        <v>7949</v>
+      </c>
+      <c r="L496">
+        <v>10839</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12">
+      <c r="A497" s="1">
+        <v>495</v>
+      </c>
+      <c r="B497">
+        <v>127573</v>
+      </c>
+      <c r="C497">
+        <v>17241</v>
+      </c>
+      <c r="D497">
+        <v>127573</v>
+      </c>
+      <c r="E497" t="s">
+        <v>79</v>
+      </c>
+      <c r="F497">
+        <v>4489</v>
+      </c>
+      <c r="G497">
+        <v>280</v>
+      </c>
+      <c r="H497">
+        <v>11095</v>
+      </c>
+      <c r="I497">
+        <v>4679</v>
+      </c>
+      <c r="J497" t="s">
+        <v>90</v>
+      </c>
+      <c r="K497">
+        <v>1377</v>
+      </c>
+      <c r="L497">
+        <v>9713</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12">
+      <c r="A498" s="1">
+        <v>496</v>
+      </c>
+      <c r="B498">
+        <v>4242</v>
+      </c>
+      <c r="C498">
+        <v>133</v>
+      </c>
+      <c r="D498">
+        <v>4242</v>
+      </c>
+      <c r="E498" t="s">
+        <v>80</v>
+      </c>
+      <c r="F498">
+        <v>77</v>
+      </c>
+      <c r="G498">
+        <v>1</v>
+      </c>
+      <c r="H498">
+        <v>0</v>
+      </c>
+      <c r="I498">
+        <v>152</v>
+      </c>
+      <c r="J498" t="s">
+        <v>94</v>
+      </c>
+      <c r="K498">
+        <v>55</v>
+      </c>
+      <c r="L498">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12">
+      <c r="A499" s="1">
+        <v>497</v>
+      </c>
+      <c r="B499">
+        <v>19381</v>
+      </c>
+      <c r="C499">
+        <v>2885</v>
+      </c>
+      <c r="D499">
+        <v>19003</v>
+      </c>
+      <c r="E499" t="s">
+        <v>80</v>
+      </c>
+      <c r="F499">
+        <v>608</v>
+      </c>
+      <c r="G499">
+        <v>38</v>
+      </c>
+      <c r="H499">
+        <v>2200</v>
+      </c>
+      <c r="I499">
+        <v>352</v>
+      </c>
+      <c r="J499" t="s">
+        <v>93</v>
+      </c>
+      <c r="K499">
+        <v>39</v>
+      </c>
+      <c r="L499">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12">
+      <c r="A500" s="1">
+        <v>498</v>
+      </c>
+      <c r="B500">
+        <v>7071</v>
+      </c>
+      <c r="C500">
+        <v>556</v>
+      </c>
+      <c r="D500">
+        <v>6731</v>
+      </c>
+      <c r="E500" t="s">
+        <v>80</v>
+      </c>
+      <c r="F500">
+        <v>390</v>
+      </c>
+      <c r="G500">
+        <v>4</v>
+      </c>
+      <c r="H500">
+        <v>142</v>
+      </c>
+      <c r="I500">
+        <v>86</v>
+      </c>
+      <c r="J500" t="s">
+        <v>95</v>
+      </c>
+      <c r="K500">
+        <v>20</v>
+      </c>
+      <c r="L500">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12">
+      <c r="A501" s="1">
+        <v>499</v>
+      </c>
+      <c r="B501">
+        <v>29033</v>
+      </c>
+      <c r="C501">
+        <v>1138</v>
+      </c>
+      <c r="D501">
+        <v>29033</v>
+      </c>
+      <c r="E501" t="s">
+        <v>80</v>
+      </c>
+      <c r="F501">
+        <v>151</v>
+      </c>
+      <c r="G501">
+        <v>9</v>
+      </c>
+      <c r="H501">
+        <v>948</v>
+      </c>
+      <c r="I501">
+        <v>1608</v>
+      </c>
+      <c r="J501" t="s">
+        <v>88</v>
+      </c>
+      <c r="K501">
+        <v>30</v>
+      </c>
+      <c r="L501">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="502" spans="1:12">
+      <c r="A502" s="1">
+        <v>500</v>
+      </c>
+      <c r="B502">
+        <v>42121</v>
+      </c>
+      <c r="C502">
+        <v>6554</v>
+      </c>
+      <c r="D502">
+        <v>43329</v>
+      </c>
+      <c r="E502" t="s">
+        <v>80</v>
+      </c>
+      <c r="F502">
+        <v>2058</v>
+      </c>
+      <c r="G502">
+        <v>345</v>
+      </c>
+      <c r="H502">
+        <v>3639</v>
+      </c>
+      <c r="I502">
+        <v>1400</v>
+      </c>
+      <c r="J502" t="s">
+        <v>91</v>
+      </c>
+      <c r="K502">
+        <v>512</v>
+      </c>
+      <c r="L502">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12">
+      <c r="A503" s="1">
+        <v>501</v>
+      </c>
+      <c r="B503">
+        <v>155679</v>
+      </c>
+      <c r="C503">
+        <v>16685</v>
+      </c>
+      <c r="D503">
+        <v>180540</v>
+      </c>
+      <c r="E503" t="s">
+        <v>80</v>
+      </c>
+      <c r="F503">
+        <v>5076</v>
+      </c>
+      <c r="G503">
+        <v>289</v>
+      </c>
+      <c r="H503">
+        <v>2782</v>
+      </c>
+      <c r="I503">
+        <v>7058</v>
+      </c>
+      <c r="J503" t="s">
+        <v>89</v>
+      </c>
+      <c r="K503">
+        <v>8538</v>
+      </c>
+      <c r="L503">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12">
+      <c r="A504" s="1">
+        <v>502</v>
+      </c>
+      <c r="B504">
+        <v>131376</v>
+      </c>
+      <c r="C504">
+        <v>17947</v>
+      </c>
+      <c r="D504">
+        <v>131376</v>
+      </c>
+      <c r="E504" t="s">
+        <v>80</v>
+      </c>
+      <c r="F504">
+        <v>4741</v>
+      </c>
+      <c r="G504">
+        <v>299</v>
+      </c>
+      <c r="H504">
+        <v>11373</v>
+      </c>
+      <c r="I504">
+        <v>3803</v>
+      </c>
+      <c r="J504" t="s">
+        <v>90</v>
+      </c>
+      <c r="K504">
+        <v>1534</v>
+      </c>
+      <c r="L504">
+        <v>8482</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12">
+      <c r="A505" s="1">
+        <v>503</v>
+      </c>
+      <c r="B505">
+        <v>4470</v>
+      </c>
+      <c r="C505">
+        <v>148</v>
+      </c>
+      <c r="D505">
+        <v>4470</v>
+      </c>
+      <c r="E505" t="s">
+        <v>81</v>
+      </c>
+      <c r="F505">
+        <v>79</v>
+      </c>
+      <c r="G505">
+        <v>1</v>
+      </c>
+      <c r="H505">
+        <v>0</v>
+      </c>
+      <c r="I505">
+        <v>228</v>
+      </c>
+      <c r="J505" t="s">
+        <v>94</v>
+      </c>
+      <c r="K505">
+        <v>68</v>
+      </c>
+      <c r="L505">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12">
+      <c r="A506" s="1">
+        <v>504</v>
+      </c>
+      <c r="B506">
+        <v>19394</v>
+      </c>
+      <c r="C506">
+        <v>2968</v>
+      </c>
+      <c r="D506">
+        <v>19345</v>
+      </c>
+      <c r="E506" t="s">
+        <v>81</v>
+      </c>
+      <c r="F506">
+        <v>636</v>
+      </c>
+      <c r="G506">
+        <v>38</v>
+      </c>
+      <c r="H506">
+        <v>2259</v>
+      </c>
+      <c r="I506">
+        <v>13</v>
+      </c>
+      <c r="J506" t="s">
+        <v>93</v>
+      </c>
+      <c r="K506">
+        <v>35</v>
+      </c>
+      <c r="L506">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12">
+      <c r="A507" s="1">
+        <v>505</v>
+      </c>
+      <c r="B507">
+        <v>7178</v>
+      </c>
+      <c r="C507">
+        <v>579</v>
+      </c>
+      <c r="D507">
+        <v>6928</v>
+      </c>
+      <c r="E507" t="s">
+        <v>81</v>
+      </c>
+      <c r="F507">
+        <v>402</v>
+      </c>
+      <c r="G507">
+        <v>4</v>
+      </c>
+      <c r="H507">
+        <v>151</v>
+      </c>
+      <c r="I507">
+        <v>107</v>
+      </c>
+      <c r="J507" t="s">
+        <v>95</v>
+      </c>
+      <c r="K507">
+        <v>22</v>
+      </c>
+      <c r="L507">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12">
+      <c r="A508" s="1">
+        <v>506</v>
+      </c>
+      <c r="B508">
+        <v>30364</v>
+      </c>
+      <c r="C508">
+        <v>1235</v>
+      </c>
+      <c r="D508">
+        <v>30364</v>
+      </c>
+      <c r="E508" t="s">
+        <v>81</v>
+      </c>
+      <c r="F508">
+        <v>151</v>
+      </c>
+      <c r="G508">
+        <v>10</v>
+      </c>
+      <c r="H508">
+        <v>1039</v>
+      </c>
+      <c r="I508">
+        <v>1331</v>
+      </c>
+      <c r="J508" t="s">
+        <v>88</v>
+      </c>
+      <c r="K508">
+        <v>35</v>
+      </c>
+      <c r="L508">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="509" spans="1:12">
+      <c r="A509" s="1">
+        <v>507</v>
+      </c>
+      <c r="B509">
+        <v>43623</v>
+      </c>
+      <c r="C509">
+        <v>6815</v>
+      </c>
+      <c r="D509">
+        <v>44973</v>
+      </c>
+      <c r="E509" t="s">
+        <v>81</v>
+      </c>
+      <c r="F509">
+        <v>2130</v>
+      </c>
+      <c r="G509">
+        <v>351</v>
+      </c>
+      <c r="H509">
+        <v>3799</v>
+      </c>
+      <c r="I509">
+        <v>1502</v>
+      </c>
+      <c r="J509" t="s">
+        <v>91</v>
+      </c>
+      <c r="K509">
+        <v>535</v>
+      </c>
+      <c r="L509">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12">
+      <c r="A510" s="1">
+        <v>508</v>
+      </c>
+      <c r="B510">
+        <v>162669</v>
+      </c>
+      <c r="C510">
+        <v>17382</v>
+      </c>
+      <c r="D510">
+        <v>185979</v>
+      </c>
+      <c r="E510" t="s">
+        <v>81</v>
+      </c>
+      <c r="F510">
+        <v>5112</v>
+      </c>
+      <c r="G510">
+        <v>297</v>
+      </c>
+      <c r="H510">
+        <v>3255</v>
+      </c>
+      <c r="I510">
+        <v>6990</v>
+      </c>
+      <c r="J510" t="s">
+        <v>89</v>
+      </c>
+      <c r="K510">
+        <v>8718</v>
+      </c>
+      <c r="L510">
+        <v>11674</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12">
+      <c r="A511" s="1">
+        <v>509</v>
+      </c>
+      <c r="B511">
+        <v>137540</v>
+      </c>
+      <c r="C511">
+        <v>18964</v>
+      </c>
+      <c r="D511">
+        <v>137540</v>
+      </c>
+      <c r="E511" t="s">
+        <v>81</v>
+      </c>
+      <c r="F511">
+        <v>5645</v>
+      </c>
+      <c r="G511">
+        <v>316</v>
+      </c>
+      <c r="H511">
+        <v>11516</v>
+      </c>
+      <c r="I511">
+        <v>6164</v>
+      </c>
+      <c r="J511" t="s">
+        <v>90</v>
+      </c>
+      <c r="K511">
+        <v>1487</v>
+      </c>
+      <c r="L511">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12">
+      <c r="A512" s="1">
+        <v>510</v>
+      </c>
+      <c r="B512">
+        <v>4659</v>
+      </c>
+      <c r="C512">
+        <v>158</v>
+      </c>
+      <c r="D512">
+        <v>4659</v>
+      </c>
+      <c r="E512" t="s">
+        <v>82</v>
+      </c>
+      <c r="F512">
+        <v>79</v>
+      </c>
+      <c r="G512">
+        <v>1</v>
+      </c>
+      <c r="H512">
+        <v>0</v>
+      </c>
+      <c r="I512">
+        <v>189</v>
+      </c>
+      <c r="J512" t="s">
+        <v>94</v>
+      </c>
+      <c r="K512">
+        <v>78</v>
+      </c>
+      <c r="L512">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12">
+      <c r="A513" s="1">
+        <v>511</v>
+      </c>
+      <c r="B513">
+        <v>19698</v>
+      </c>
+      <c r="C513">
+        <v>3074</v>
+      </c>
+      <c r="D513">
+        <v>19888</v>
+      </c>
+      <c r="E513" t="s">
+        <v>82</v>
+      </c>
+      <c r="F513">
+        <v>724</v>
+      </c>
+      <c r="G513">
+        <v>39</v>
+      </c>
+      <c r="H513">
+        <v>2253</v>
+      </c>
+      <c r="I513">
+        <v>304</v>
+      </c>
+      <c r="J513" t="s">
+        <v>93</v>
+      </c>
+      <c r="K513">
+        <v>58</v>
+      </c>
+      <c r="L513">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="514" spans="1:12">
+      <c r="A514" s="1">
+        <v>512</v>
+      </c>
+      <c r="B514">
+        <v>7310</v>
+      </c>
+      <c r="C514">
+        <v>602</v>
+      </c>
+      <c r="D514">
+        <v>7099</v>
+      </c>
+      <c r="E514" t="s">
+        <v>82</v>
+      </c>
+      <c r="F514">
+        <v>412</v>
+      </c>
+      <c r="G514">
+        <v>4</v>
+      </c>
+      <c r="H514">
+        <v>161</v>
+      </c>
+      <c r="I514">
+        <v>132</v>
+      </c>
+      <c r="J514" t="s">
+        <v>95</v>
+      </c>
+      <c r="K514">
+        <v>25</v>
+      </c>
+      <c r="L514">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="515" spans="1:12">
+      <c r="A515" s="1">
+        <v>513</v>
+      </c>
+      <c r="B515">
+        <v>32126</v>
+      </c>
+      <c r="C515">
+        <v>1326</v>
+      </c>
+      <c r="D515">
+        <v>32126</v>
+      </c>
+      <c r="E515" t="s">
+        <v>82</v>
+      </c>
+      <c r="F515">
+        <v>151</v>
+      </c>
+      <c r="G515">
+        <v>12</v>
+      </c>
+      <c r="H515">
+        <v>1129</v>
+      </c>
+      <c r="I515">
+        <v>1762</v>
+      </c>
+      <c r="J515" t="s">
+        <v>88</v>
+      </c>
+      <c r="K515">
+        <v>34</v>
+      </c>
+      <c r="L515">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="516" spans="1:12">
+      <c r="A516" s="1">
+        <v>514</v>
+      </c>
+      <c r="B516">
+        <v>45049</v>
+      </c>
+      <c r="C516">
+        <v>7155</v>
+      </c>
+      <c r="D516">
+        <v>46762</v>
+      </c>
+      <c r="E516" t="s">
+        <v>82</v>
+      </c>
+      <c r="F516">
+        <v>2198</v>
+      </c>
+      <c r="G516">
+        <v>365</v>
+      </c>
+      <c r="H516">
+        <v>4172</v>
+      </c>
+      <c r="I516">
+        <v>1426</v>
+      </c>
+      <c r="J516" t="s">
+        <v>91</v>
+      </c>
+      <c r="K516">
+        <v>420</v>
+      </c>
+      <c r="L516">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="517" spans="1:12">
+      <c r="A517" s="1">
+        <v>515</v>
+      </c>
+      <c r="B517">
+        <v>165801</v>
+      </c>
+      <c r="C517">
+        <v>18455</v>
+      </c>
+      <c r="D517">
+        <v>191910</v>
+      </c>
+      <c r="E517" t="s">
+        <v>82</v>
+      </c>
+      <c r="F517">
+        <v>5312</v>
+      </c>
+      <c r="G517">
+        <v>310</v>
+      </c>
+      <c r="H517">
+        <v>3415</v>
+      </c>
+      <c r="I517">
+        <v>3132</v>
+      </c>
+      <c r="J517" t="s">
+        <v>89</v>
+      </c>
+      <c r="K517">
+        <v>9418</v>
+      </c>
+      <c r="L517">
+        <v>11370</v>
+      </c>
+    </row>
+    <row r="518" spans="1:12">
+      <c r="A518" s="1">
+        <v>516</v>
+      </c>
+      <c r="B518">
+        <v>143543</v>
+      </c>
+      <c r="C518">
+        <v>19924</v>
+      </c>
+      <c r="D518">
+        <v>143543</v>
+      </c>
+      <c r="E518" t="s">
+        <v>82</v>
+      </c>
+      <c r="F518">
+        <v>6325</v>
+      </c>
+      <c r="G518">
+        <v>336</v>
+      </c>
+      <c r="H518">
+        <v>11735</v>
+      </c>
+      <c r="I518">
+        <v>6003</v>
+      </c>
+      <c r="J518" t="s">
+        <v>90</v>
+      </c>
+      <c r="K518">
+        <v>1528</v>
+      </c>
+      <c r="L518">
+        <v>12167</v>
+      </c>
+    </row>
+    <row r="519" spans="1:12">
+      <c r="A519" s="1">
+        <v>517</v>
+      </c>
+      <c r="B519">
+        <v>4868</v>
+      </c>
+      <c r="C519">
+        <v>171</v>
+      </c>
+      <c r="D519">
+        <v>4868</v>
+      </c>
+      <c r="E519" t="s">
+        <v>83</v>
+      </c>
+      <c r="F519">
+        <v>94</v>
+      </c>
+      <c r="G519">
+        <v>1</v>
+      </c>
+      <c r="H519">
+        <v>0</v>
+      </c>
+      <c r="I519">
+        <v>209</v>
+      </c>
+      <c r="J519" t="s">
+        <v>94</v>
+      </c>
+      <c r="K519">
+        <v>76</v>
+      </c>
+      <c r="L519">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="520" spans="1:12">
+      <c r="A520" s="1">
+        <v>518</v>
+      </c>
+      <c r="B520">
+        <v>19980</v>
+      </c>
+      <c r="C520">
+        <v>3198</v>
+      </c>
+      <c r="D520">
+        <v>20383</v>
+      </c>
+      <c r="E520" t="s">
+        <v>83</v>
+      </c>
+      <c r="F520">
+        <v>762</v>
+      </c>
+      <c r="G520">
+        <v>39</v>
+      </c>
+      <c r="H520">
+        <v>2339</v>
+      </c>
+      <c r="I520">
+        <v>282</v>
+      </c>
+      <c r="J520" t="s">
+        <v>93</v>
+      </c>
+      <c r="K520">
+        <v>58</v>
+      </c>
+      <c r="L520">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="521" spans="1:12">
+      <c r="A521" s="1">
+        <v>519</v>
+      </c>
+      <c r="B521">
+        <v>7540</v>
+      </c>
+      <c r="C521">
+        <v>607</v>
+      </c>
+      <c r="D521">
+        <v>7338</v>
+      </c>
+      <c r="E521" t="s">
+        <v>83</v>
+      </c>
+      <c r="F521">
+        <v>427</v>
+      </c>
+      <c r="G521">
+        <v>4</v>
+      </c>
+      <c r="H521">
+        <v>150</v>
+      </c>
+      <c r="I521">
+        <v>230</v>
+      </c>
+      <c r="J521" t="s">
+        <v>95</v>
+      </c>
+      <c r="K521">
+        <v>26</v>
+      </c>
+      <c r="L521">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="522" spans="1:12">
+      <c r="A522" s="1">
+        <v>520</v>
+      </c>
+      <c r="B522">
+        <v>32964</v>
+      </c>
+      <c r="C522">
+        <v>1457</v>
+      </c>
+      <c r="D522">
+        <v>32964</v>
+      </c>
+      <c r="E522" t="s">
+        <v>83</v>
+      </c>
+      <c r="F522">
+        <v>152</v>
+      </c>
+      <c r="G522">
+        <v>12</v>
+      </c>
+      <c r="H522">
+        <v>1260</v>
+      </c>
+      <c r="I522">
+        <v>838</v>
+      </c>
+      <c r="J522" t="s">
+        <v>88</v>
+      </c>
+      <c r="K522">
+        <v>33</v>
+      </c>
+      <c r="L522">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="523" spans="1:12">
+      <c r="A523" s="1">
+        <v>521</v>
+      </c>
+      <c r="B523">
+        <v>46279</v>
+      </c>
+      <c r="C523">
+        <v>7391</v>
+      </c>
+      <c r="D523">
+        <v>48348</v>
+      </c>
+      <c r="E523" t="s">
+        <v>83</v>
+      </c>
+      <c r="F523">
+        <v>2297</v>
+      </c>
+      <c r="G523">
+        <v>381</v>
+      </c>
+      <c r="H523">
+        <v>4248</v>
+      </c>
+      <c r="I523">
+        <v>1230</v>
+      </c>
+      <c r="J523" t="s">
+        <v>91</v>
+      </c>
+      <c r="K523">
+        <v>465</v>
+      </c>
+      <c r="L523">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="524" spans="1:12">
+      <c r="A524" s="1">
+        <v>522</v>
+      </c>
+      <c r="B524">
+        <v>169603</v>
+      </c>
+      <c r="C524">
+        <v>18730</v>
+      </c>
+      <c r="D524">
+        <v>197225</v>
+      </c>
+      <c r="E524" t="s">
+        <v>83</v>
+      </c>
+      <c r="F524">
+        <v>5906</v>
+      </c>
+      <c r="G524">
+        <v>324</v>
+      </c>
+      <c r="H524">
+        <v>10374</v>
+      </c>
+      <c r="I524">
+        <v>3802</v>
+      </c>
+      <c r="J524" t="s">
+        <v>89</v>
+      </c>
+      <c r="K524">
+        <v>2126</v>
+      </c>
+      <c r="L524">
+        <v>11246</v>
+      </c>
+    </row>
+    <row r="525" spans="1:12">
+      <c r="A525" s="1">
+        <v>523</v>
+      </c>
+      <c r="B525">
+        <v>149566</v>
+      </c>
+      <c r="C525">
+        <v>20883</v>
+      </c>
+      <c r="D525">
+        <v>149566</v>
+      </c>
+      <c r="E525" t="s">
+        <v>83</v>
+      </c>
+      <c r="F525">
+        <v>7015</v>
+      </c>
+      <c r="G525">
+        <v>340</v>
+      </c>
+      <c r="H525">
+        <v>11895</v>
+      </c>
+      <c r="I525">
+        <v>6023</v>
+      </c>
+      <c r="J525" t="s">
+        <v>90</v>
+      </c>
+      <c r="K525">
+        <v>1633</v>
+      </c>
+      <c r="L525">
+        <v>12026</v>
+      </c>
+    </row>
+    <row r="526" spans="1:12">
+      <c r="A526" s="1">
+        <v>524</v>
+      </c>
+      <c r="B526">
+        <v>5103</v>
+      </c>
+      <c r="C526">
+        <v>197</v>
+      </c>
+      <c r="D526">
+        <v>5103</v>
+      </c>
+      <c r="E526" t="s">
+        <v>84</v>
+      </c>
+      <c r="F526">
+        <v>97</v>
+      </c>
+      <c r="G526">
+        <v>1</v>
+      </c>
+      <c r="H526">
+        <v>0</v>
+      </c>
+      <c r="I526">
+        <v>235</v>
+      </c>
+      <c r="J526" t="s">
+        <v>94</v>
+      </c>
+      <c r="K526">
+        <v>99</v>
+      </c>
+      <c r="L526">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="527" spans="1:12">
+      <c r="A527" s="1">
+        <v>525</v>
+      </c>
+      <c r="B527">
+        <v>19998</v>
+      </c>
+      <c r="C527">
+        <v>3306</v>
+      </c>
+      <c r="D527">
+        <v>20987</v>
+      </c>
+      <c r="E527" t="s">
+        <v>84</v>
+      </c>
+      <c r="F527">
+        <v>860</v>
+      </c>
+      <c r="G527">
+        <v>39</v>
+      </c>
+      <c r="H527">
+        <v>2346</v>
+      </c>
+      <c r="I527">
+        <v>18</v>
+      </c>
+      <c r="J527" t="s">
+        <v>93</v>
+      </c>
+      <c r="K527">
+        <v>61</v>
+      </c>
+      <c r="L527">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="528" spans="1:12">
+      <c r="A528" s="1">
+        <v>526</v>
+      </c>
+      <c r="B528">
+        <v>7780</v>
+      </c>
+      <c r="C528">
+        <v>619</v>
+      </c>
+      <c r="D528">
+        <v>7443</v>
+      </c>
+      <c r="E528" t="s">
+        <v>84</v>
+      </c>
+      <c r="F528">
+        <v>430</v>
+      </c>
+      <c r="G528">
+        <v>4</v>
+      </c>
+      <c r="H528">
+        <v>161</v>
+      </c>
+      <c r="I528">
+        <v>240</v>
+      </c>
+      <c r="J528" t="s">
+        <v>95</v>
+      </c>
+      <c r="K528">
+        <v>24</v>
+      </c>
+      <c r="L528">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="529" spans="1:12">
+      <c r="A529" s="1">
+        <v>527</v>
+      </c>
+      <c r="B529">
+        <v>33936</v>
+      </c>
+      <c r="C529">
+        <v>1592</v>
+      </c>
+      <c r="D529">
+        <v>33936</v>
+      </c>
+      <c r="E529" t="s">
+        <v>84</v>
+      </c>
+      <c r="F529">
+        <v>152</v>
+      </c>
+      <c r="G529">
+        <v>14</v>
+      </c>
+      <c r="H529">
+        <v>1396</v>
+      </c>
+      <c r="I529">
+        <v>972</v>
+      </c>
+      <c r="J529" t="s">
+        <v>88</v>
+      </c>
+      <c r="K529">
+        <v>30</v>
+      </c>
+      <c r="L529">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="530" spans="1:12">
+      <c r="A530" s="1">
+        <v>528</v>
+      </c>
+      <c r="B530">
+        <v>47431</v>
+      </c>
+      <c r="C530">
+        <v>7685</v>
+      </c>
+      <c r="D530">
+        <v>49780</v>
+      </c>
+      <c r="E530" t="s">
+        <v>84</v>
+      </c>
+      <c r="F530">
+        <v>2396</v>
+      </c>
+      <c r="G530">
+        <v>389</v>
+      </c>
+      <c r="H530">
+        <v>4497</v>
+      </c>
+      <c r="I530">
+        <v>1152</v>
+      </c>
+      <c r="J530" t="s">
+        <v>91</v>
+      </c>
+      <c r="K530">
+        <v>403</v>
+      </c>
+      <c r="L530">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="531" spans="1:12">
+      <c r="A531" s="1">
+        <v>529</v>
+      </c>
+      <c r="B531">
+        <v>175007</v>
+      </c>
+      <c r="C531">
+        <v>19557</v>
+      </c>
+      <c r="D531">
+        <v>202456</v>
+      </c>
+      <c r="E531" t="s">
+        <v>84</v>
+      </c>
+      <c r="F531">
+        <v>6050</v>
+      </c>
+      <c r="G531">
+        <v>332</v>
+      </c>
+      <c r="H531">
+        <v>11215</v>
+      </c>
+      <c r="I531">
+        <v>5404</v>
+      </c>
+      <c r="J531" t="s">
+        <v>89</v>
+      </c>
+      <c r="K531">
+        <v>1960</v>
+      </c>
+      <c r="L531">
+        <v>10546</v>
+      </c>
+    </row>
+    <row r="532" spans="1:12">
+      <c r="A532" s="1">
+        <v>530</v>
+      </c>
+      <c r="B532">
+        <v>153902</v>
+      </c>
+      <c r="C532">
+        <v>21645</v>
+      </c>
+      <c r="D532">
+        <v>153902</v>
+      </c>
+      <c r="E532" t="s">
+        <v>84</v>
+      </c>
+      <c r="F532">
+        <v>7213</v>
+      </c>
+      <c r="G532">
+        <v>354</v>
+      </c>
+      <c r="H532">
+        <v>12424</v>
+      </c>
+      <c r="I532">
+        <v>4336</v>
+      </c>
+      <c r="J532" t="s">
+        <v>90</v>
+      </c>
+      <c r="K532">
+        <v>1654</v>
+      </c>
+      <c r="L532">
+        <v>10359</v>
+      </c>
+    </row>
+    <row r="533" spans="1:12">
+      <c r="A533" s="1">
+        <v>531</v>
+      </c>
+      <c r="B533">
+        <v>5225</v>
+      </c>
+      <c r="C533">
+        <v>209</v>
+      </c>
+      <c r="D533">
+        <v>5225</v>
+      </c>
+      <c r="E533" t="s">
+        <v>85</v>
+      </c>
+      <c r="F533">
+        <v>99</v>
+      </c>
+      <c r="G533">
+        <v>2</v>
+      </c>
+      <c r="H533">
+        <v>0</v>
+      </c>
+      <c r="I533">
+        <v>122</v>
+      </c>
+      <c r="J533" t="s">
+        <v>94</v>
+      </c>
+      <c r="K533">
+        <v>108</v>
+      </c>
+      <c r="L533">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="534" spans="1:12">
+      <c r="A534" s="1">
+        <v>532</v>
+      </c>
+      <c r="B534">
+        <v>19998</v>
+      </c>
+      <c r="C534">
+        <v>3407</v>
+      </c>
+      <c r="D534">
+        <v>21401</v>
+      </c>
+      <c r="E534" t="s">
+        <v>85</v>
+      </c>
+      <c r="F534">
+        <v>875</v>
+      </c>
+      <c r="G534">
+        <v>40</v>
+      </c>
+      <c r="H534">
+        <v>2415</v>
+      </c>
+      <c r="I534">
+        <v>0</v>
+      </c>
+      <c r="J534" t="s">
+        <v>93</v>
+      </c>
+      <c r="K534">
+        <v>77</v>
+      </c>
+      <c r="L534">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="535" spans="1:12">
+      <c r="A535" s="1">
+        <v>533</v>
+      </c>
+      <c r="B535">
+        <v>7827</v>
+      </c>
+      <c r="C535">
+        <v>619</v>
+      </c>
+      <c r="D535">
+        <v>7574</v>
+      </c>
+      <c r="E535" t="s">
+        <v>85</v>
+      </c>
+      <c r="F535">
+        <v>437</v>
+      </c>
+      <c r="G535">
+        <v>7</v>
+      </c>
+      <c r="H535">
+        <v>151</v>
+      </c>
+      <c r="I535">
+        <v>47</v>
+      </c>
+      <c r="J535" t="s">
+        <v>95</v>
+      </c>
+      <c r="K535">
+        <v>24</v>
+      </c>
+      <c r="L535">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="536" spans="1:12">
+      <c r="A536" s="1">
+        <v>534</v>
+      </c>
+      <c r="B536">
+        <v>34379</v>
+      </c>
+      <c r="C536">
+        <v>1641</v>
+      </c>
+      <c r="D536">
+        <v>34379</v>
+      </c>
+      <c r="E536" t="s">
+        <v>85</v>
+      </c>
+      <c r="F536">
+        <v>152</v>
+      </c>
+      <c r="G536">
+        <v>16</v>
+      </c>
+      <c r="H536">
+        <v>1442</v>
+      </c>
+      <c r="I536">
+        <v>443</v>
+      </c>
+      <c r="J536" t="s">
+        <v>88</v>
+      </c>
+      <c r="K536">
+        <v>31</v>
+      </c>
+      <c r="L536">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="537" spans="1:12">
+      <c r="A537" s="1">
+        <v>535</v>
+      </c>
+      <c r="B537">
+        <v>48476</v>
+      </c>
+      <c r="C537">
+        <v>7905</v>
+      </c>
+      <c r="D537">
+        <v>51587</v>
+      </c>
+      <c r="E537" t="s">
+        <v>85</v>
+      </c>
+      <c r="F537">
+        <v>2469</v>
+      </c>
+      <c r="G537">
+        <v>398</v>
+      </c>
+      <c r="H537">
+        <v>4637</v>
+      </c>
+      <c r="I537">
+        <v>1045</v>
+      </c>
+      <c r="J537" t="s">
+        <v>91</v>
+      </c>
+      <c r="K537">
+        <v>401</v>
+      </c>
+      <c r="L537">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="538" spans="1:12">
+      <c r="A538" s="1">
+        <v>536</v>
+      </c>
+      <c r="B538">
+        <v>178178</v>
+      </c>
+      <c r="C538">
+        <v>20077</v>
+      </c>
+      <c r="D538">
+        <v>206041</v>
+      </c>
+      <c r="E538" t="s">
+        <v>85</v>
+      </c>
+      <c r="F538">
+        <v>6091</v>
+      </c>
+      <c r="G538">
+        <v>337</v>
+      </c>
+      <c r="H538">
+        <v>11596</v>
+      </c>
+      <c r="I538">
+        <v>3171</v>
+      </c>
+      <c r="J538" t="s">
+        <v>89</v>
+      </c>
+      <c r="K538">
+        <v>2053</v>
+      </c>
+      <c r="L538">
+        <v>8816</v>
+      </c>
+    </row>
+    <row r="539" spans="1:12">
+      <c r="A539" s="1">
+        <v>537</v>
+      </c>
+      <c r="B539">
+        <v>157449</v>
+      </c>
+      <c r="C539">
+        <v>22491</v>
+      </c>
+      <c r="D539">
+        <v>157449</v>
+      </c>
+      <c r="E539" t="s">
+        <v>85</v>
+      </c>
+      <c r="F539">
+        <v>7359</v>
+      </c>
+      <c r="G539">
+        <v>367</v>
+      </c>
+      <c r="H539">
+        <v>13094</v>
+      </c>
+      <c r="I539">
+        <v>3547</v>
+      </c>
+      <c r="J539" t="s">
+        <v>90</v>
+      </c>
+      <c r="K539">
+        <v>1671</v>
+      </c>
+      <c r="L539">
+        <v>7883</v>
+      </c>
+    </row>
+    <row r="540" spans="1:12">
+      <c r="A540" s="1">
+        <v>538</v>
+      </c>
+      <c r="B540">
+        <v>5341</v>
+      </c>
+      <c r="C540">
+        <v>211</v>
+      </c>
+      <c r="D540">
+        <v>5341</v>
+      </c>
+      <c r="E540" t="s">
+        <v>86</v>
+      </c>
+      <c r="F540">
+        <v>99</v>
+      </c>
+      <c r="G540">
+        <v>2</v>
+      </c>
+      <c r="H540">
+        <v>0</v>
+      </c>
+      <c r="I540">
+        <v>116</v>
+      </c>
+      <c r="J540" t="s">
+        <v>94</v>
+      </c>
+      <c r="K540">
+        <v>110</v>
+      </c>
+      <c r="L540">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="541" spans="1:12">
+      <c r="A541" s="1">
+        <v>539</v>
+      </c>
+      <c r="B541">
+        <v>20352</v>
+      </c>
+      <c r="C541">
+        <v>3468</v>
+      </c>
+      <c r="D541">
+        <v>21597</v>
+      </c>
+      <c r="E541" t="s">
+        <v>86</v>
+      </c>
+      <c r="F541">
+        <v>993</v>
+      </c>
+      <c r="G541">
+        <v>41</v>
+      </c>
+      <c r="H541">
+        <v>2357</v>
+      </c>
+      <c r="I541">
+        <v>354</v>
+      </c>
+      <c r="J541" t="s">
+        <v>93</v>
+      </c>
+      <c r="K541">
+        <v>77</v>
+      </c>
+      <c r="L541">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="542" spans="1:12">
+      <c r="A542" s="1">
+        <v>540</v>
+      </c>
+      <c r="B542">
+        <v>8086</v>
+      </c>
+      <c r="C542">
+        <v>630</v>
+      </c>
+      <c r="D542">
+        <v>7652</v>
+      </c>
+      <c r="E542" t="s">
+        <v>86</v>
+      </c>
+      <c r="F542">
+        <v>444</v>
+      </c>
+      <c r="G542">
+        <v>8</v>
+      </c>
+      <c r="H542">
+        <v>154</v>
+      </c>
+      <c r="I542">
+        <v>259</v>
+      </c>
+      <c r="J542" t="s">
+        <v>95</v>
+      </c>
+      <c r="K542">
+        <v>24</v>
+      </c>
+      <c r="L542">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="543" spans="1:12">
+      <c r="A543" s="1">
+        <v>541</v>
+      </c>
+      <c r="B543">
+        <v>34964</v>
+      </c>
+      <c r="C543">
+        <v>1728</v>
+      </c>
+      <c r="D543">
+        <v>34964</v>
+      </c>
+      <c r="E543" t="s">
+        <v>86</v>
+      </c>
+      <c r="F543">
+        <v>152</v>
+      </c>
+      <c r="G543">
+        <v>17</v>
+      </c>
+      <c r="H543">
+        <v>1527</v>
+      </c>
+      <c r="I543">
+        <v>585</v>
+      </c>
+      <c r="J543" t="s">
+        <v>88</v>
+      </c>
+      <c r="K543">
+        <v>32</v>
+      </c>
+      <c r="L543">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="544" spans="1:12">
+      <c r="A544" s="1">
+        <v>542</v>
+      </c>
+      <c r="B544">
+        <v>49025</v>
+      </c>
+      <c r="C544">
+        <v>8080</v>
+      </c>
+      <c r="D544">
+        <v>52783</v>
+      </c>
+      <c r="E544" t="s">
+        <v>86</v>
+      </c>
+      <c r="F544">
+        <v>2529</v>
+      </c>
+      <c r="G544">
+        <v>408</v>
+      </c>
+      <c r="H544">
+        <v>4743</v>
+      </c>
+      <c r="I544">
+        <v>549</v>
+      </c>
+      <c r="J544" t="s">
+        <v>91</v>
+      </c>
+      <c r="K544">
+        <v>400</v>
+      </c>
+      <c r="L544">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="545" spans="1:12">
+      <c r="A545" s="1">
+        <v>543</v>
+      </c>
+      <c r="B545">
+        <v>180538</v>
+      </c>
+      <c r="C545">
+        <v>20654</v>
+      </c>
+      <c r="D545">
+        <v>209270</v>
+      </c>
+      <c r="E545" t="s">
+        <v>86</v>
+      </c>
+      <c r="F545">
+        <v>6124</v>
+      </c>
+      <c r="G545">
+        <v>352</v>
+      </c>
+      <c r="H545">
+        <v>12041</v>
+      </c>
+      <c r="I545">
+        <v>2360</v>
+      </c>
+      <c r="J545" t="s">
+        <v>89</v>
+      </c>
+      <c r="K545">
+        <v>2137</v>
+      </c>
+      <c r="L545">
+        <v>6814</v>
+      </c>
+    </row>
+    <row r="546" spans="1:12">
+      <c r="A546" s="1">
+        <v>544</v>
+      </c>
+      <c r="B546">
+        <v>159301</v>
+      </c>
+      <c r="C546">
+        <v>22934</v>
+      </c>
+      <c r="D546">
+        <v>159301</v>
+      </c>
+      <c r="E546" t="s">
+        <v>86</v>
+      </c>
+      <c r="F546">
+        <v>7973</v>
+      </c>
+      <c r="G546">
+        <v>369</v>
+      </c>
+      <c r="H546">
+        <v>12943</v>
+      </c>
+      <c r="I546">
+        <v>1852</v>
+      </c>
+      <c r="J546" t="s">
+        <v>90</v>
+      </c>
+      <c r="K546">
+        <v>1649</v>
+      </c>
+      <c r="L546">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="547" spans="1:12">
+      <c r="A547" s="1">
+        <v>545</v>
+      </c>
+      <c r="B547">
+        <v>5379</v>
+      </c>
+      <c r="C547">
+        <v>214</v>
+      </c>
+      <c r="D547">
+        <v>5379</v>
+      </c>
+      <c r="E547" t="s">
+        <v>87</v>
+      </c>
+      <c r="F547">
+        <v>99</v>
+      </c>
+      <c r="G547">
+        <v>4</v>
+      </c>
+      <c r="H547">
+        <v>0</v>
+      </c>
+      <c r="I547">
+        <v>38</v>
+      </c>
+      <c r="J547" t="s">
+        <v>94</v>
+      </c>
+      <c r="K547">
+        <v>111</v>
+      </c>
+      <c r="L547">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="548" spans="1:12">
+      <c r="A548" s="1">
+        <v>546</v>
+      </c>
+      <c r="B548">
+        <v>20574</v>
+      </c>
+      <c r="C548">
+        <v>3536</v>
+      </c>
+      <c r="D548">
+        <v>21866</v>
+      </c>
+      <c r="E548" t="s">
+        <v>87</v>
+      </c>
+      <c r="F548">
+        <v>1156</v>
+      </c>
+      <c r="G548">
+        <v>42</v>
+      </c>
+      <c r="H548">
+        <v>2229</v>
+      </c>
+      <c r="I548">
+        <v>222</v>
+      </c>
+      <c r="J548" t="s">
+        <v>93</v>
+      </c>
+      <c r="K548">
+        <v>109</v>
+      </c>
+      <c r="L548">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="549" spans="1:12">
+      <c r="A549" s="1">
+        <v>547</v>
+      </c>
+      <c r="B549">
+        <v>8175</v>
+      </c>
+      <c r="C549">
+        <v>638</v>
+      </c>
+      <c r="D549">
+        <v>7761</v>
+      </c>
+      <c r="E549" t="s">
+        <v>87</v>
+      </c>
+      <c r="F549">
+        <v>457</v>
+      </c>
+      <c r="G549">
+        <v>9</v>
+      </c>
+      <c r="H549">
+        <v>148</v>
+      </c>
+      <c r="I549">
+        <v>89</v>
+      </c>
+      <c r="J549" t="s">
+        <v>95</v>
+      </c>
+      <c r="K549">
+        <v>24</v>
+      </c>
+      <c r="L549">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="550" spans="1:12">
+      <c r="A550" s="1">
+        <v>548</v>
+      </c>
+      <c r="B550">
+        <v>35551</v>
+      </c>
+      <c r="C550">
+        <v>1879</v>
+      </c>
+      <c r="D550">
+        <v>35551</v>
+      </c>
+      <c r="E550" t="s">
+        <v>87</v>
+      </c>
+      <c r="F550">
+        <v>152</v>
+      </c>
+      <c r="G550">
+        <v>18</v>
+      </c>
+      <c r="H550">
+        <v>1678</v>
+      </c>
+      <c r="I550">
+        <v>587</v>
+      </c>
+      <c r="J550" t="s">
+        <v>88</v>
+      </c>
+      <c r="K550">
+        <v>31</v>
+      </c>
+      <c r="L550">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="551" spans="1:12">
+      <c r="A551" s="1">
+        <v>549</v>
+      </c>
+      <c r="B551">
+        <v>49627</v>
+      </c>
+      <c r="C551">
+        <v>8259</v>
+      </c>
+      <c r="D551">
+        <v>53917</v>
+      </c>
+      <c r="E551" t="s">
+        <v>87</v>
+      </c>
+      <c r="F551">
+        <v>2578</v>
+      </c>
+      <c r="G551">
+        <v>416</v>
+      </c>
+      <c r="H551">
+        <v>4862</v>
+      </c>
+      <c r="I551">
+        <v>602</v>
+      </c>
+      <c r="J551" t="s">
+        <v>91</v>
+      </c>
+      <c r="K551">
+        <v>403</v>
+      </c>
+      <c r="L551">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="552" spans="1:12">
+      <c r="A552" s="1">
+        <v>550</v>
+      </c>
+      <c r="B552">
+        <v>182977</v>
+      </c>
+      <c r="C552">
+        <v>21118</v>
+      </c>
+      <c r="D552">
+        <v>213297</v>
+      </c>
+      <c r="E552" t="s">
+        <v>87</v>
+      </c>
+      <c r="F552">
+        <v>6185</v>
+      </c>
+      <c r="G552">
+        <v>362</v>
+      </c>
+      <c r="H552">
+        <v>12394</v>
+      </c>
+      <c r="I552">
+        <v>2439</v>
+      </c>
+      <c r="J552" t="s">
+        <v>89</v>
+      </c>
+      <c r="K552">
+        <v>2177</v>
+      </c>
+      <c r="L552">
+        <v>7256</v>
+      </c>
+    </row>
+    <row r="553" spans="1:12">
+      <c r="A553" s="1">
+        <v>551</v>
+      </c>
+      <c r="B553">
+        <v>161628</v>
+      </c>
+      <c r="C553">
+        <v>23507</v>
+      </c>
+      <c r="D553">
+        <v>161628</v>
+      </c>
+      <c r="E553" t="s">
+        <v>87</v>
+      </c>
+      <c r="F553">
+        <v>8515</v>
+      </c>
+      <c r="G553">
+        <v>374</v>
+      </c>
+      <c r="H553">
+        <v>12931</v>
+      </c>
+      <c r="I553">
+        <v>2327</v>
+      </c>
+      <c r="J553" t="s">
+        <v>90</v>
+      </c>
+      <c r="K553">
+        <v>1687</v>
+      </c>
+      <c r="L553">
+        <v>4179</v>
       </c>
     </row>
   </sheetData>
